--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\2. COMANDO COVID\10. PLAN COMANDO COVID\3. Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\covid-19-cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,60 +139,9 @@
     <t>SESIÓN</t>
   </si>
   <si>
-    <t>1.	Se aprueba el plan de Mediano Plazo del Comando COVID y la iniciativa de implementar un Semáforo Epidemiológico COVID que cuente con medidas de acción establecidas en función de posibles escenarios de evolución. Asimismo, la propuesta final del Semáforo debe ser enviada hasta el día martes 10 de noviembre al Ministerio de salud y posteriormente aprobada con Resolución Ejecutiva Regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.	Se solicitará a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento mediante documento un cronograma optimizado para la entrega de los IOARR relacionados a la mejora de la oferta COVID, camas UCI, entre otros. Asimismo, se invitará a la próxima sesión ordinaria del comando al Gerente de Infraestructura y Planeamiento para presentar los avances y dificultades en la ejecución de la implementación de estos IOARR.  </t>
-  </si>
-  <si>
-    <t>3.	Se enviará un documento a ESSALUD solicitando garantizar su participación en las reuniones del Comando COVID. Asimismo, se solicitará un informe sobre la situación de los balones de oxígeno entregados en Comodato, otorgándoles un plazo breve para la devolución de los mismos.</t>
-  </si>
-  <si>
-    <t>4.	Se reenviará un documento a CONREDE para que certifique al nuevo representante del Comando COVID, el mismo que participará en las reuniones según corresponda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.	La Diresa presentará en la próxima reunión una demanda de presupuesto adicional al Gobierno Regional para la ejecución del Plan de Vacunación COVID, el cual contemple una estructura de costos y el detalle de las medidas a ser realizadas.  </t>
-  </si>
-  <si>
-    <t>6.	La Diresa presentará en la próxima reunión el Plan de Gestión Hospitalaria con un mapeo de recursos estratégicos en coordinación con ESSALUD, y en el marco de un posible rebrote.</t>
-  </si>
-  <si>
-    <t>7.	La DIRESA CUSCO en coordinación con el Colegio de Antropólogos, la Comisión Respira Cusco y la Cámara de Comercio presentarán avances y dificultades en el proceso de comunicación, educación y vigilancia en el marco de la pandemia COVID y en el contexto de un posible rebrote considerando posibles escenarios.</t>
-  </si>
-  <si>
     <t>8.	La GRDS en coordinación con la Dirección de promoción de Salud desarrollará y promocionará mensajes masivos ante un nuevo escenario para que sean enviados y replicados en gobiernos locales y medios de comunicación de alcance regional.</t>
   </si>
   <si>
-    <t>1.	Se aprueba la primera propuesta del Semáforo COVID y el Modelo de Proyección SEIR. Asimismo, se acuerda que, a través de la Dirección Regional de Salud Cusco, se envíe la propuesta final al Ministerio de Salud para su validación y aprobación.</t>
-  </si>
-  <si>
-    <t>2.	El Colegio Médico convocará a una reunión técnica con el Dr. Choque y otros especialistas a fin de ampliar, mejorar e incluir modelos de proyección COVID.</t>
-  </si>
-  <si>
-    <t>1.	La Dirección Regional de Salud Cusco y EsSalud Cusco presentarán, mediante un informe escrito, un plan de Contingencia ante un posible escenario adverso originado por la movilización y las experiencias en otros países. El informe debe incluir la disponibilidad de camas UCI, insumos críticos, gestión hospitalaria y de recursos humanos. El informe será presentado en un plazo de una semana y será presentado por los titulares en la próxima sesión del Comando COVID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.	Se insta a la Dirección Regional de Salud, al Hospital Regional, a la Gerencia de la Red de Salud de La Convención, para que, en el menor plazo posible, realicen la entrega de los espacios requeridos para la intervención y concluir con los IOARR. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.	Se solicita a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento Presupuesto y Acondicionamiento Territorial del GORE, que, en el plazo de la siguiente semana, se realice la entrega por escrito del cronograma optimizado de la ejecución presupuestal, avance de los IOARR y el presupuesto establecido para afrontar el COVID-19. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.	Se exhorta a EsSalud Cusco que en un plazo máximo de 48 horas devuelva los balones de oxígeno a la empresa OXYMAN COMERCIAL S.A.C., resuelva el contrato con esta empresa, y en plazo de 72 horas envié de retorno el presupuesto a las cuentas del Arzobispado a fin de adquirir los insumos o equipos que EsSalud Cusco requiera. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.	 EsSalud Cusco presentará en un plazo de 72 horas, las necesidades de equipamiento u otros para afrontar un posible rebrote, especificando en el informe los equipos relacionados a la atención COVID que requerirían para la ejecución de este presupuesto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.	En la próxima reunión y de ser necesario, en una reunión extraordinaria, se determinará por parte de los miembros del Comando, si se adquiere los balones de oxígeno o aquello que demande justificadamente EsSalud Cusco para su compra respectiva. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.	En la próxima sesión del Comando COVID, tanto el Arzobispado como CONREDE presentarán un informe final de la ejecución del presupuesto de la campaña “RESPIRA CUSCO” y de su destino final. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.	Exhortar a las instituciones involucradas, especialmente a la DIRCETUR para participar activamente en las reuniones convocadas por el Comando a través de la Oficina de Articulación para el trabajo comunitario y en ese contexto se presente el Plan de trabajo Final en la próxima reunión. </t>
-  </si>
-  <si>
     <t>DIRESA</t>
   </si>
   <si>
@@ -205,9 +154,6 @@
     <t>Preguntar a eva acerca de los avances</t>
   </si>
   <si>
-    <t>Se incluye en la agenda, seguimiento</t>
-  </si>
-  <si>
     <t>OFICIO N°</t>
   </si>
   <si>
@@ -262,27 +208,6 @@
     <t>Reunion 17-11</t>
   </si>
   <si>
-    <t>DIRESA, COMANDO COVID</t>
-  </si>
-  <si>
-    <t>GRI, GRPPAT</t>
-  </si>
-  <si>
-    <t>DIRESA, ESSALUD</t>
-  </si>
-  <si>
-    <t>DIRESA, COLEGIO DE ANTROPÓLOGOS</t>
-  </si>
-  <si>
-    <t>GRDS, DIRESA</t>
-  </si>
-  <si>
-    <t>DIRESA, HOSPITAL REGIONAL,GERENCIA RED LA CONVENCIÓN</t>
-  </si>
-  <si>
-    <t>ARZOBISPADO, CONREDE</t>
-  </si>
-  <si>
     <t>Entidad</t>
   </si>
   <si>
@@ -293,6 +218,81 @@
   </si>
   <si>
     <t>Documento Remitido</t>
+  </si>
+  <si>
+    <t>1.	La Dirección Regional de Salud Cusco y EsSalud Cusco presentarán. mediante un informe escrito. un plan de Contingencia ante un posible escenario adverso originado por la movilización y las experiencias en otros países. El informe debe incluir la disponibilidad de camas UCI. insumos críticos. gestión hospitalaria y de recursos humanos. El informe será presentado en un plazo de una semana y será presentado por los titulares en la próxima sesión del Comando COVID.</t>
+  </si>
+  <si>
+    <t>DIRESA. ESSALUD</t>
+  </si>
+  <si>
+    <t>Se incluye en la agenda. seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.	Se insta a la Dirección Regional de Salud. al Hospital Regional. a la Gerencia de la Red de Salud de La Convención. para que. en el menor plazo posible. realicen la entrega de los espacios requeridos para la intervención y concluir con los IOARR. </t>
+  </si>
+  <si>
+    <t>DIRESA. HOSPITAL REGIONAL.GERENCIA RED LA CONVENCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.	Se solicita a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento Presupuesto y Acondicionamiento Territorial del GORE. que. en el plazo de la siguiente semana. se realice la entrega por escrito del cronograma optimizado de la ejecución presupuestal. avance de los IOARR y el presupuesto establecido para afrontar el COVID-19. </t>
+  </si>
+  <si>
+    <t>GRI. GRPPAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.	Se exhorta a EsSalud Cusco que en un plazo máximo de 48 horas devuelva los balones de oxígeno a la empresa OXYMAN COMERCIAL S.A.C.. resuelva el contrato con esta empresa. y en plazo de 72 horas envié de retorno el presupuesto a las cuentas del Arzobispado a fin de adquirir los insumos o equipos que EsSalud Cusco requiera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.	 EsSalud Cusco presentará en un plazo de 72 horas. las necesidades de equipamiento u otros para afrontar un posible rebrote. especificando en el informe los equipos relacionados a la atención COVID que requerirían para la ejecución de este presupuesto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.	En la próxima reunión y de ser necesario. en una reunión extraordinaria. se determinará por parte de los miembros del Comando. si se adquiere los balones de oxígeno o aquello que demande justificadamente EsSalud Cusco para su compra respectiva. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.	En la próxima sesión del Comando COVID. tanto el Arzobispado como CONREDE presentarán un informe final de la ejecución del presupuesto de la campaña “RESPIRA CUSCO” y de su destino final. </t>
+  </si>
+  <si>
+    <t>ARZOBISPADO. CONREDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.	Exhortar a las instituciones involucradas. especialmente a la DIRCETUR para participar activamente en las reuniones convocadas por el Comando a través de la Oficina de Articulación para el trabajo comunitario y en ese contexto se presente el Plan de trabajo Final en la próxima reunión. </t>
+  </si>
+  <si>
+    <t>1.	Se aprueba la primera propuesta del Semáforo COVID y el Modelo de Proyección SEIR. Asimismo. se acuerda que. a través de la Dirección Regional de Salud Cusco. se envíe la propuesta final al Ministerio de Salud para su validación y aprobación.</t>
+  </si>
+  <si>
+    <t>2.	El Colegio Médico convocará a una reunión técnica con el Dr. Choque y otros especialistas a fin de ampliar. mejorar e incluir modelos de proyección COVID.</t>
+  </si>
+  <si>
+    <t>1.	Se aprueba el plan de Mediano Plazo del Comando COVID y la iniciativa de implementar un Semáforo Epidemiológico COVID que cuente con medidas de acción establecidas en función de posibles escenarios de evolución. Asimismo. la propuesta final del Semáforo debe ser enviada hasta el día martes 10 de noviembre al Ministerio de salud y posteriormente aprobada con Resolución Ejecutiva Regional</t>
+  </si>
+  <si>
+    <t>DIRESA. COMANDO COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.	Se solicitará a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento mediante documento un cronograma optimizado para la entrega de los IOARR relacionados a la mejora de la oferta COVID. camas UCI. entre otros. Asimismo. se invitará a la próxima sesión ordinaria del comando al Gerente de Infraestructura y Planeamiento para presentar los avances y dificultades en la ejecución de la implementación de estos IOARR.  </t>
+  </si>
+  <si>
+    <t>3.	Se enviará un documento a ESSALUD solicitando garantizar su participación en las reuniones del Comando COVID. Asimismo. se solicitará un informe sobre la situación de los balones de oxígeno entregados en Comodato. otorgándoles un plazo breve para la devolución de los mismos.</t>
+  </si>
+  <si>
+    <t>4.	Se reenviará un documento a CONREDE para que certifique al nuevo representante del Comando COVID. el mismo que participará en las reuniones según corresponda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.	La Diresa presentará en la próxima reunión una demanda de presupuesto adicional al Gobierno Regional para la ejecución del Plan de Vacunación COVID. el cual contemple una estructura de costos y el detalle de las medidas a ser realizadas.  </t>
+  </si>
+  <si>
+    <t>6.	La Diresa presentará en la próxima reunión el Plan de Gestión Hospitalaria con un mapeo de recursos estratégicos en coordinación con ESSALUD. y en el marco de un posible rebrote.</t>
+  </si>
+  <si>
+    <t>7.	La DIRESA CUSCO en coordinación con el Colegio de Antropólogos. la Comisión Respira Cusco y la Cámara de Comercio presentarán avances y dificultades en el proceso de comunicación. educación y vigilancia en el marco de la pandemia COVID y en el contexto de un posible rebrote considerando posibles escenarios.</t>
+  </si>
+  <si>
+    <t>DIRESA. COLEGIO DE ANTROPÓLOGOS</t>
+  </si>
+  <si>
+    <t>GRDS. DIRESA</t>
   </si>
 </sst>
 </file>
@@ -683,6 +683,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,13 +699,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -991,7 +991,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,23 +1004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="27" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>71</v>
+      <c r="A1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1048,22 +1048,22 @@
     </row>
     <row r="2" spans="1:29" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1091,20 +1091,20 @@
     </row>
     <row r="3" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="33" t="s">
-        <v>73</v>
+      <c r="F3" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1132,22 +1132,22 @@
     </row>
     <row r="4" spans="1:29" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1175,20 +1175,20 @@
     </row>
     <row r="5" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1216,20 +1216,20 @@
     </row>
     <row r="6" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1257,20 +1257,20 @@
     </row>
     <row r="7" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1298,20 +1298,20 @@
     </row>
     <row r="8" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1339,18 +1339,18 @@
     </row>
     <row r="9" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="33" t="s">
-        <v>72</v>
+      <c r="F9" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1378,20 +1378,20 @@
     </row>
     <row r="10" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="33" t="s">
-        <v>72</v>
+      <c r="F10" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1419,20 +1419,20 @@
     </row>
     <row r="11" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="33" t="s">
-        <v>72</v>
+      <c r="F11" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1460,20 +1460,20 @@
     </row>
     <row r="12" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="33" t="s">
-        <v>72</v>
+      <c r="F12" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1501,20 +1501,20 @@
     </row>
     <row r="13" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="33" t="s">
-        <v>72</v>
+      <c r="F13" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1542,20 +1542,20 @@
     </row>
     <row r="14" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="33" t="s">
-        <v>72</v>
+      <c r="F14" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1583,20 +1583,20 @@
     </row>
     <row r="15" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="33" t="s">
-        <v>72</v>
+      <c r="F15" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1624,20 +1624,20 @@
     </row>
     <row r="16" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1665,20 +1665,20 @@
     </row>
     <row r="17" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="33" t="s">
-        <v>73</v>
+      <c r="F17" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1705,22 +1705,22 @@
     </row>
     <row r="18" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1748,20 +1748,20 @@
     </row>
     <row r="19" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="33" t="s">
-        <v>73</v>
+      <c r="F19" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1829,10 +1829,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="11" t="s">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="11" t="s">
@@ -4161,18 +4161,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>

--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,9 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -987,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,50 +1000,27 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="27" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-    </row>
-    <row r="2" spans="1:29" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
@@ -1062,34 +1036,11 @@
       <c r="E2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -1103,34 +1054,11 @@
         <v>52</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
@@ -1146,34 +1074,11 @@
       <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
@@ -1187,34 +1092,11 @@
       <c r="E5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
@@ -1228,34 +1110,11 @@
       <c r="E6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1269,34 +1128,11 @@
       <c r="E7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>59</v>
       </c>
@@ -1310,34 +1146,11 @@
       <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1349,34 +1162,11 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1390,34 +1180,11 @@
         <v>51</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1431,34 +1198,11 @@
         <v>51</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
@@ -1472,34 +1216,11 @@
         <v>49</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1513,34 +1234,11 @@
         <v>49</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -1554,34 +1252,11 @@
         <v>49</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
@@ -1595,34 +1270,11 @@
         <v>50</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1636,34 +1288,11 @@
         <v>50</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
@@ -1677,33 +1306,11 @@
         <v>50</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>57</v>
       </c>
@@ -1719,34 +1326,11 @@
       <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
@@ -1760,32 +1344,9 @@
         <v>51</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4161,18 +3722,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>

--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="296">
   <si>
     <t>SGNGSR - EMITIDOS 2020</t>
   </si>
@@ -139,9 +139,6 @@
     <t>SESIÓN</t>
   </si>
   <si>
-    <t>8.	La GRDS en coordinación con la Dirección de promoción de Salud desarrollará y promocionará mensajes masivos ante un nuevo escenario para que sean enviados y replicados en gobiernos locales y medios de comunicación de alcance regional.</t>
-  </si>
-  <si>
     <t>DIRESA</t>
   </si>
   <si>
@@ -220,79 +217,705 @@
     <t>Documento Remitido</t>
   </si>
   <si>
-    <t>1.	La Dirección Regional de Salud Cusco y EsSalud Cusco presentarán. mediante un informe escrito. un plan de Contingencia ante un posible escenario adverso originado por la movilización y las experiencias en otros países. El informe debe incluir la disponibilidad de camas UCI. insumos críticos. gestión hospitalaria y de recursos humanos. El informe será presentado en un plazo de una semana y será presentado por los titulares en la próxima sesión del Comando COVID.</t>
-  </si>
-  <si>
-    <t>DIRESA. ESSALUD</t>
-  </si>
-  <si>
     <t>Se incluye en la agenda. seguimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">2.	Se insta a la Dirección Regional de Salud. al Hospital Regional. a la Gerencia de la Red de Salud de La Convención. para que. en el menor plazo posible. realicen la entrega de los espacios requeridos para la intervención y concluir con los IOARR. </t>
-  </si>
-  <si>
-    <t>DIRESA. HOSPITAL REGIONAL.GERENCIA RED LA CONVENCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.	Se solicita a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento Presupuesto y Acondicionamiento Territorial del GORE. que. en el plazo de la siguiente semana. se realice la entrega por escrito del cronograma optimizado de la ejecución presupuestal. avance de los IOARR y el presupuesto establecido para afrontar el COVID-19. </t>
-  </si>
-  <si>
-    <t>GRI. GRPPAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.	Se exhorta a EsSalud Cusco que en un plazo máximo de 48 horas devuelva los balones de oxígeno a la empresa OXYMAN COMERCIAL S.A.C.. resuelva el contrato con esta empresa. y en plazo de 72 horas envié de retorno el presupuesto a las cuentas del Arzobispado a fin de adquirir los insumos o equipos que EsSalud Cusco requiera. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.	 EsSalud Cusco presentará en un plazo de 72 horas. las necesidades de equipamiento u otros para afrontar un posible rebrote. especificando en el informe los equipos relacionados a la atención COVID que requerirían para la ejecución de este presupuesto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.	En la próxima reunión y de ser necesario. en una reunión extraordinaria. se determinará por parte de los miembros del Comando. si se adquiere los balones de oxígeno o aquello que demande justificadamente EsSalud Cusco para su compra respectiva. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.	En la próxima sesión del Comando COVID. tanto el Arzobispado como CONREDE presentarán un informe final de la ejecución del presupuesto de la campaña “RESPIRA CUSCO” y de su destino final. </t>
-  </si>
-  <si>
-    <t>ARZOBISPADO. CONREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.	Exhortar a las instituciones involucradas. especialmente a la DIRCETUR para participar activamente en las reuniones convocadas por el Comando a través de la Oficina de Articulación para el trabajo comunitario y en ese contexto se presente el Plan de trabajo Final en la próxima reunión. </t>
-  </si>
-  <si>
-    <t>1.	Se aprueba la primera propuesta del Semáforo COVID y el Modelo de Proyección SEIR. Asimismo. se acuerda que. a través de la Dirección Regional de Salud Cusco. se envíe la propuesta final al Ministerio de Salud para su validación y aprobación.</t>
-  </si>
-  <si>
-    <t>2.	El Colegio Médico convocará a una reunión técnica con el Dr. Choque y otros especialistas a fin de ampliar. mejorar e incluir modelos de proyección COVID.</t>
-  </si>
-  <si>
-    <t>1.	Se aprueba el plan de Mediano Plazo del Comando COVID y la iniciativa de implementar un Semáforo Epidemiológico COVID que cuente con medidas de acción establecidas en función de posibles escenarios de evolución. Asimismo. la propuesta final del Semáforo debe ser enviada hasta el día martes 10 de noviembre al Ministerio de salud y posteriormente aprobada con Resolución Ejecutiva Regional</t>
-  </si>
-  <si>
-    <t>DIRESA. COMANDO COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.	Se solicitará a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento mediante documento un cronograma optimizado para la entrega de los IOARR relacionados a la mejora de la oferta COVID. camas UCI. entre otros. Asimismo. se invitará a la próxima sesión ordinaria del comando al Gerente de Infraestructura y Planeamiento para presentar los avances y dificultades en la ejecución de la implementación de estos IOARR.  </t>
-  </si>
-  <si>
-    <t>3.	Se enviará un documento a ESSALUD solicitando garantizar su participación en las reuniones del Comando COVID. Asimismo. se solicitará un informe sobre la situación de los balones de oxígeno entregados en Comodato. otorgándoles un plazo breve para la devolución de los mismos.</t>
-  </si>
-  <si>
-    <t>4.	Se reenviará un documento a CONREDE para que certifique al nuevo representante del Comando COVID. el mismo que participará en las reuniones según corresponda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.	La Diresa presentará en la próxima reunión una demanda de presupuesto adicional al Gobierno Regional para la ejecución del Plan de Vacunación COVID. el cual contemple una estructura de costos y el detalle de las medidas a ser realizadas.  </t>
-  </si>
-  <si>
-    <t>6.	La Diresa presentará en la próxima reunión el Plan de Gestión Hospitalaria con un mapeo de recursos estratégicos en coordinación con ESSALUD. y en el marco de un posible rebrote.</t>
-  </si>
-  <si>
-    <t>7.	La DIRESA CUSCO en coordinación con el Colegio de Antropólogos. la Comisión Respira Cusco y la Cámara de Comercio presentarán avances y dificultades en el proceso de comunicación. educación y vigilancia en el marco de la pandemia COVID y en el contexto de un posible rebrote considerando posibles escenarios.</t>
-  </si>
-  <si>
-    <t>DIRESA. COLEGIO DE ANTROPÓLOGOS</t>
-  </si>
-  <si>
-    <t>GRDS. DIRESA</t>
+    <t>1,	La Dirección Regional de Salud Cusco y EsSalud Cusco presentarán, mediante un informe escrito, un plan de Contingencia ante un posible escenario adverso originado por la movilización y las experiencias en otros países, El informe debe incluir la disponibilidad de camas UCI, insumos críticos, gestión hospitalaria y de recursos humanos, El informe será presentado en un plazo de una semana y será presentado por los titulares en la próxima sesión del Comando COVID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,	Se insta a la Dirección Regional de Salud, al Hospital Regional, a la Gerencia de la Red de Salud de La Convención, para que, en el menor plazo posible, realicen la entrega de los espacios requeridos para la intervención y concluir con los IOARR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,	Se solicita a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento Presupuesto y Acondicionamiento Territorial del GORE, que, en el plazo de la siguiente semana, se realice la entrega por escrito del cronograma optimizado de la ejecución presupuestal, avance de los IOARR y el presupuesto establecido para afrontar el COVID-19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,	Se exhorta a EsSalud Cusco que en un plazo máximo de 48 horas devuelva los balones de oxígeno a la empresa OXYMAN COMERCIAL S,A,C,, resuelva el contrato con esta empresa, y en plazo de 72 horas envié de retorno el presupuesto a las cuentas del Arzobispado a fin de adquirir los insumos o equipos que EsSalud Cusco requiera, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,	 EsSalud Cusco presentará en un plazo de 72 horas, las necesidades de equipamiento u otros para afrontar un posible rebrote, especificando en el informe los equipos relacionados a la atención COVID que requerirían para la ejecución de este presupuesto, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,	En la próxima reunión y de ser necesario, en una reunión extraordinaria, se determinará por parte de los miembros del Comando, si se adquiere los balones de oxígeno o aquello que demande justificadamente EsSalud Cusco para su compra respectiva, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,	En la próxima sesión del Comando COVID, tanto el Arzobispado como CONREDE presentarán un informe final de la ejecución del presupuesto de la campaña “RESPIRA CUSCO” y de su destino final, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,	Exhortar a las instituciones involucradas, especialmente a la DIRCETUR para participar activamente en las reuniones convocadas por el Comando a través de la Oficina de Articulación para el trabajo comunitario y en ese contexto se presente el Plan de trabajo Final en la próxima reunión, </t>
+  </si>
+  <si>
+    <t>1,	Se aprueba la primera propuesta del Semáforo COVID y el Modelo de Proyección SEIR, Asimismo, se acuerda que, a través de la Dirección Regional de Salud Cusco, se envíe la propuesta final al Ministerio de Salud para su validación y aprobación,</t>
+  </si>
+  <si>
+    <t>2,	El Colegio Médico convocará a una reunión técnica con el Dr, Choque y otros especialistas a fin de ampliar, mejorar e incluir modelos de proyección COVID,</t>
+  </si>
+  <si>
+    <t>1,	Se aprueba el plan de Mediano Plazo del Comando COVID y la iniciativa de implementar un Semáforo Epidemiológico COVID que cuente con medidas de acción establecidas en función de posibles escenarios de evolución, Asimismo, la propuesta final del Semáforo debe ser enviada hasta el día martes 10 de noviembre al Ministerio de salud y posteriormente aprobada con Resolución Ejecutiva Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,	Se solicitará a la Gerencia Regional de Infraestructura y la Gerencia Regional de Planeamiento mediante documento un cronograma optimizado para la entrega de los IOARR relacionados a la mejora de la oferta COVID, camas UCI, entre otros, Asimismo, se invitará a la próxima sesión ordinaria del comando al Gerente de Infraestructura y Planeamiento para presentar los avances y dificultades en la ejecución de la implementación de estos IOARR,  </t>
+  </si>
+  <si>
+    <t>3,	Se enviará un documento a ESSALUD solicitando garantizar su participación en las reuniones del Comando COVID, Asimismo, se solicitará un informe sobre la situación de los balones de oxígeno entregados en Comodato, otorgándoles un plazo breve para la devolución de los mismos,</t>
+  </si>
+  <si>
+    <t>4,	Se reenviará un documento a CONREDE para que certifique al nuevo representante del Comando COVID, el mismo que participará en las reuniones según corresponda,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,	La Diresa presentará en la próxima reunión una demanda de presupuesto adicional al Gobierno Regional para la ejecución del Plan de Vacunación COVID, el cual contemple una estructura de costos y el detalle de las medidas a ser realizadas,  </t>
+  </si>
+  <si>
+    <t>6,	La Diresa presentará en la próxima reunión el Plan de Gestión Hospitalaria con un mapeo de recursos estratégicos en coordinación con ESSALUD, y en el marco de un posible rebrote,</t>
+  </si>
+  <si>
+    <t>7,	La DIRESA CUSCO en coordinación con el Colegio de Antropólogos, la Comisión Respira Cusco y la Cámara de Comercio presentarán avances y dificultades en el proceso de comunicación, educación y vigilancia en el marco de la pandemia COVID y en el contexto de un posible rebrote considerando posibles escenarios,</t>
+  </si>
+  <si>
+    <t>8,	La GRDS en coordinación con la Dirección de promoción de Salud desarrollará y promocionará mensajes masivos ante un nuevo escenario para que sean enviados y replicados en gobiernos locales y medios de comunicación de alcance regional,</t>
+  </si>
+  <si>
+    <t>Reunion 13-10</t>
+  </si>
+  <si>
+    <t>1. Se acuerda que DIRESA presente un Plan Estratégico de Vacunación COVID para la Región Cusco en la siguiente reunión del Comando COVID. El plan deberá ser coordinado con el Colegio de Enfermeros, los integrantes del Consejo Regional de Salud y EsSalud Cusco</t>
+  </si>
+  <si>
+    <t>2. Se acuerda que DIRESA presente un Plan de Implementación de Camas UCI, intermedias y puntos COVID que incluya el número de camas que se encuentran en almacén en la siguiente reunión del Comando COVID</t>
+  </si>
+  <si>
+    <t>3. Se acuerda que con el liderazgo de la DIRESA Cusco a través de la Dirección de Gestión Hospitalaria y considerando la creación del PMO de Gestión Clínica Hospitalaria Covid 19, conformado con Resolución Ejecutiva Regional N° 354-2020-GR CUSCO/GR se presente en conjunto un Plan de Mejora de Gestión Hospitalaria para pacientes COVID y no COVID en la siguiente reunión del Comando COVID</t>
+  </si>
+  <si>
+    <t>4. Solicitar a través del Colegio de Antropólogos y el Colegio Médico que la representación de CONREDE se formalice ante el Comando de Operaciones COVID, y se comunique el cambio de representación para integrar formalmente a la nueva representante</t>
+  </si>
+  <si>
+    <t>5. Se acuerda que el equipo de trabajo liderado por Diresa, el Colegio de Antropólogos y el Colegio Médico presente en la próxima reunión el plan de trabajo de articulación entre los Comandos COVID a nivel regional, local y comunal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Se aprueba la conformación del Comando de Comunicaciones COVID y del equipo de articulación encargado de realizar este trabajo con los Comandos Provinciales, Distritales y el Comando Amazónico y Andino de acuerdo al punto anterior. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Quedan convocados para el día miércoles 14 de octubre a las 10:00 am la Gerencia Regional de Desarrollo Social, la Policía Nacional, Cámara de Comercio y representantes de epidemiología e infectología de los hospitales para definir los protocolos y verificación de la normativa nacional en relación al ingreso hacia la Región de Cusco, Distritos y Comunidades Nativas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Se enviará con documento formal el Plan de trabajo actualizado a los miembros del Comando COVID para los aportes respectivos, los mismos que serán entregados en un lapso de 72 horas, para ser aprobado en la próxima reunión del Comando COVID. </t>
+  </si>
+  <si>
+    <t>DIRESA, ESSALUD</t>
+  </si>
+  <si>
+    <t>DIRESA, HOSPITAL REGIONAL,GERENCIA RED LA CONVENCIÓN</t>
+  </si>
+  <si>
+    <t>GRI, GRPPAT</t>
+  </si>
+  <si>
+    <t>ARZOBISPADO, CONREDE</t>
+  </si>
+  <si>
+    <t>DIRESA, COMANDO COVID</t>
+  </si>
+  <si>
+    <t>DIRESA, COLEGIO DE ANTROPÓLOGOS</t>
+  </si>
+  <si>
+    <t>GRDS, DIRESA</t>
+  </si>
+  <si>
+    <t>COLEGIO DE ANTROPÓLOGOS, COLEGIO MÉDICO</t>
+  </si>
+  <si>
+    <t>COLEGIO DE ANTROPÓLOGOS</t>
+  </si>
+  <si>
+    <t>POLICÍA NACIONAL, CÁMARA DE COMERCIO, HOSPITALES DE LA REGIÓN</t>
+  </si>
+  <si>
+    <t>Reunion 29-09</t>
+  </si>
+  <si>
+    <t>1. La Dirección Regional de Salud, en el lapso de esta semana; convocará a una reunión de trabajo con el Colegio de Antropólogos y el Colegio de Médicos con el fin de fortalecer la articulación interregional, el fortalecimiento de los Comandos Indígenas Regionales y la sensibilización de la población.</t>
+  </si>
+  <si>
+    <t>2. Se da por recibido el informe de distribución de oxígeno realizado por parte de la Cámara de Comercio del Cusco y la Corporación educativa GAL. Asimismo, se dispone que la DIRESA Cusco convoque a una reunión de trabajo para formalizar el proceso de entrega de balones de oxígeno con los actores involucrados (empresa privada, cámara de comercio, gerencias de Red).</t>
+  </si>
+  <si>
+    <t>3. Se establece la necesidad de contar con un Laboratorio Regional de Biología Molecular que tenga en cuenta la infraestructura, el plan de operación, mantenimiento y automatización. Asimismo, se dispone de la DIRESA Cusco convoque al Colegio de Biólogos y Cooperación Internacional para definir una ruta de trabajo que permita establecer la implementación del Laboratorio Regional de Biología Molecular.</t>
+  </si>
+  <si>
+    <t>4. La Dirección Regional de Salud presentará una ruta de trabajo para programar estratégicamente el proceso de vacunación COVID en el lapso de dos semanas (se agendará en la próxima reunión). Este plan de trabajo incluirá la gestión financiera, de recursos humanos y capacitación. Para ello, se sugiere sostener reuniones con actores involucrados que participen en el proceso de construcción de este plan y sus procesos anexos.</t>
+  </si>
+  <si>
+    <t>DIRESA, COLEGIO DE BIÓLOGOS, OCTI</t>
+  </si>
+  <si>
+    <t>1. Se sugiere seguir con la vigilancia, seguimiento y fortalecimiento del sistema sanitario tomando en cuenta el relajamiento de las medidas sanitarias nacionales y el comportamiento de la población del Cusco. Asimismo, se requiere implementar y fortalecer las medidas de restricción y sanitarias sugeridas por la Dirección de Epidemiología de la DIRESA</t>
+  </si>
+  <si>
+    <t>2. Se sugiere continuar con las medidas de cuarentena en la Región Cusco hasta que se cuente con un estudio de prevalencia que determine de manera fehaciente cuál es el nivel de inmunidad alcanzado en la población.</t>
+  </si>
+  <si>
+    <t>3. Se deben fortalecer los protocolos de traslado interprovincial o interdepartamental hacia la región Cusco; y deben ser evaluados a través comité consultivo-científico para establecer las mejores medidas de control en base a la información científica disponible.</t>
+  </si>
+  <si>
+    <t>4. Se debe considerar con mucho énfasis la posibilidad de los rebrotes; sobre todo en función a la experiencia que han vivido otros países, o un aumento en la incidencia de casos en una población de menores de edad, ante el probable inicio de una mayor actividad y movilidad. Asimismo, se debe gestionar la posibilidad de pensar en la implementación anticipada de camas UCI pediátrica o el tratamiento con los protocolos de tratamiento pediátrico para que sea actualizado en la comunidad médica.</t>
+  </si>
+  <si>
+    <t>5. Se deben realizar gestiones desde nivel regional para sincerar la información y realizar la consistencia de datos con el nivel nacional, gestión que estaría a cargo de la Dirección de Inteligencia Sanitaria y Epidemiología de la DIRESA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Se sugiere, en la medida de los posible, impulsar estudios genéticos de investigación del COVID-19 en coordinación con las universidades y con asistencia del comité científico consultivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Se debe activar el comité científico consultivo para tener información correcta sobre la forma de afrontar el virus en los diferentes escenarios, junto con la participación de epidemiólogos e infectólogos de toda la región. </t>
+  </si>
+  <si>
+    <t>8. Se da por recibido el informe de la campaña Respira Cusco, y se otorga un plazo de una semana para que se haga llegar el informe por escrito, asimismo, se sugiere realizar de una conferencia de prensa para informar sobre resultados de la campaña y sobre las perspectivas de lo que actualmente está demandando la DIRESA y los hospitales; esto con el objeto de programar una posible nueva campaña colaborativa de la sociedad civil y el empresariado.</t>
+  </si>
+  <si>
+    <t>9. Se utilizarán los balones de oxígeno en el marco de lo que disponga el comité de gestión y el comité de distribución ya conformados por resolución del Gobierno Regional.</t>
+  </si>
+  <si>
+    <t>10. Se sugiere que las comisiones conformadas por DIRESA evalúen el sinceramiento de la información de camas intermedias y UCI entre la dirección Regional de salud y el seguro social con el objeto de establecer de forma definitiva cuáles son los procesos y mecanismos para generar esta información y las definiciones operacionales correspondientes.</t>
+  </si>
+  <si>
+    <t>11. Se fortalecerá la atención primaria y fortalecer la gestión hospitalaria ya no sólo con el incremento del número de camas, si no mejorar la gestión de los procesos para hacer que el uso de estas camas sea mucho más eficiente en función a la información científica disponible.</t>
+  </si>
+  <si>
+    <t>12. Se aprueba que la próxima reunión se realicé el día martes 29. Asimismo, se aprueba que las reuniones se programen dos veces al mes y se realicen los días martes, sujeto a diferentes escenarios del incremento y rebrote del COVID-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Se acuerda enviar el tablero de mando a cada una de los integrantes. Por otro lado, se establecerá una reunión con los involucrados y con la Gerencia de Desarrollo Social para evaluar la ejecución de las acciones y monitorear los indicadores propuestos. </t>
+  </si>
+  <si>
+    <t>Reunion 18-09</t>
+  </si>
+  <si>
+    <t>Reunión 08-09</t>
+  </si>
+  <si>
+    <t>1. Continuar con el trabajo de fortalecimiento de la atención a nivel provincial y valorar la conformación de un comité liderado por el Colegio de Antropólogos para fortalecer el trabajo con los Gobiernos Locales, la comunidad y los barrios.</t>
+  </si>
+  <si>
+    <t>2. Se sugiere incrementar el número de pruebas moleculares realizadas, el diagnóstico oportuno y el seguimiento focalizado hacia la población vulnerable.</t>
+  </si>
+  <si>
+    <t>3. Se aprueba el ingreso de Diresa Cusco en el proyecto de trazabilidad y se solicita al Gobierno Regional Cusco que realice una gestión financiera para que el proyecto tenga el soporte adecuado. Asimismo, se solicita a la Dirección Regional de Salud que implemente un software de seguimiento gratuito con el apoyo de la Universidad Cayetano Heredia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Continuar con el fortalecimiento de la promoción de la salud y el trabajo comunitario; con énfasis en los comandos Amazónico y Andino. Para lo cual, el Colegio Médico se compromete a desarrollar una guía de cuidado de personal de salud y agentes comunitarios. </t>
+  </si>
+  <si>
+    <t>5. El Gobierno Regional y la Diresa Cusco realizaran las gestiones necesarias para brindar sostenibilidad en la provisión de oxígeno mediante plantas o tanques; con el fin de no contar con la Planta de Cachimayo una única fuente de oxígeno medicinal.</t>
+  </si>
+  <si>
+    <t>6. Se menciona la necesidad de que el Arzobispado del Cusco y CONREDE presenten el informe final de la campaña Respira Cusco.</t>
+  </si>
+  <si>
+    <t>7. Se envía la matriz de trabajo del Comando Covid a través de Whatsapp para que, en el lapso de 72 horas, los integrantes hagan llegar sus opiniones escritas de modo virtual o físico mediante el despacho de la Gerencia Regional de Desarrollo Social.</t>
+  </si>
+  <si>
+    <t>8. La presidencia del Comando Covid sostendrá reuniones con las autoridades sanitarias y miembros del comando durante la semana para fortalecer el Tablero de Mando y emplearlo como instrumento de monitoreo y seguimiento de los acuerdos sostenidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Se sugiere que las autoridades locales de la Municipalidad Distrital de Megantoni tengan una mayor participación en el marco de lo establecido en el Decreto Legislativo N° 1489. </t>
+  </si>
+  <si>
+    <t>10. Se solicitará a la Gerencia de Planeamiento del GORE y a Diresa Cusco dar la sostenibilidad financiera necesaria en el marco de la disponibilidad presupuestal para el funcionamiento adecuado de los comandos Amazónico y Andino.</t>
+  </si>
+  <si>
+    <t>11. Se acepta la presentación realizada por la Subgerencia de Comunidades Andinas y Amazónicas en relación a los avances y perspectivas de los comandos Amazónico y Andino.</t>
+  </si>
+  <si>
+    <t>12. Se acuerda fortalecer el Plan de Comunicación que se viene desarrollando a través de las diferentes instancias, determinando en el transcurso de la semana los aspectos estratégicos que permitan llegar no solo a la población de la provincia del Cusco sino a las demás provincias y comunidades andinas y amazónicas.</t>
+  </si>
+  <si>
+    <t>Reunión 02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se aprueba la incorporación del Colegio de Enfermeros, Colegio de Antropólogos y la Oficina de Cooperación Internacional como miembros naturales del Comando de Operaciones COVID-19 Región Cusco.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Se acuerda que las medidas recomendadas por la Dirección de Inteligencia Sanitaria y Epidemiologia de la DIRESA CUSCO deben difundirse e implementarse en la comunidad. Los acuerdos de esta dirección deben ser evaluados e integrados como parte del Tablero de Mando del Comando COVID. </t>
+  </si>
+  <si>
+    <t>3. Se aprueba la Reconformación del comité consultivo de alto nivel para la elaboración de protocolos, directivas y tratamiento comunitario, en función a la solicitud de la Diresa Cusco remitida por vía formal al Comando Covid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Se aprueba incluir al Comité Consultivo liderado por DIRESA, en sus diferentes mesas de trabajo al Colegio de Médicos, Colegio de Enfermeras, Colegio de Antropólogos y Cámara de Comercio con el fin de fortalecer el trabajo realizado con los gobiernos locales y a nivel de la comunidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Se aprueba el fortalecimiento del control de transporte interprovincial y se sugiere la implementación de una ruta de trabajo entre la Policía Nacional, el ejército y la Diresa Cusco para potenciar los puntos de control Covid. La ruta de trabajo debe concluir en la formalización e implementación de los puntos de control correspondientes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Se aprueba la inclusión de colegio de Psicólogos como parte de las Comisiones de la Diresa, que incluyen el área de comunicación y el área de promoción de la salud. Con el objetivo de generar una sola estructura de trabajo y no duplicar esfuerzos. </t>
+  </si>
+  <si>
+    <t>7. Se aprueba que las reuniones ordinarias del Comando de Operaciones Covid se llevarán a cabo los días martes a las 10:00am a partir de la semana siguiente. Asimismo, será una obligación que las presentaciones realizadas se suban al WhatsApp del Comando y se adjunten como parte del acta de las reuniones.</t>
+  </si>
+  <si>
+    <t>Reunión 24-08</t>
+  </si>
+  <si>
+    <t>1. Solicitar a Diresa Cusco y Essalud Cusco un informe pormenorizado acerca de las acciones realizadas y un plan de fortalecimiento para acelerar el procesamiento de pruebas moleculares en un plazo de 48 horas, considerando que ha sido una recomendación reiterativa de la Dirección de Epidemiología e Investigación.</t>
+  </si>
+  <si>
+    <t>2. Solicitar el apoyo de la Cámara de Comercio para tomar acciones que permitan fortalecer los laboratorios de análisis de pruebas moleculares. Asimismo, se solicitará a CONREDE para que el Colegio de Biólogos que aporte en este fortalecimiento.</t>
+  </si>
+  <si>
+    <t>3. Solicitar el apoyo a la Cámara de Comercio en la compra de un Termociclador de alta capacidad que permita acelerar el procesamiento de las pruebas moleculares. Asimismo, se sugiere al Gobierno Regional, ver la posibilidad de realizar la adquisición de este Termociclador.</t>
+  </si>
+  <si>
+    <t>4. Se acuerda fortalecer la estrategia de seguimiento y monitoreo clínico a través de los equipos de respuesta rápida y los equipos de seguimiento clínico según la fase en la que se encuentren los distritos afectados por el COVID-19 como parte de una estrategia de seguimiento comunitario con la participación de los Gobiernos Locales. Se encarga a la DIRESA la organización de este proceso o su fortalecimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. El comité consultivo/ científico realizará un informe sobre la posibilidad de dar tratamiento a los integrantes de la familia sin perder la visión que el objetivo fundamental del seguimiento familiar es el monitoreo y seguimiento clínico a los miembros de la familia, sobre todo a los más vulnerables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. CONREDE, a través de la Magister Eva Palomino, informa sobre su desestimiento o la declinación de su participación en la titularidad ante el Comando COVID y propone la posibilidad de tener una participación alterna. a. Se hará cargo el vicepresidente que pasa a ser presidenta de CONREDE. 
+b. Pero ya será motivo de que el nuevo miembro haga la propuesta de incluir a un integrante alterno.
+</t>
+  </si>
+  <si>
+    <t>7. El Comando COVID aprueba integrar al Colegio de Antropólogos al Comando, tanto para dar continuidad al trabajo realizado por la Magister Eva Palomino, como en el encargo de mejorar la articulación con la comunidad y las estrategias de intervención familiar que se están proponiendo.</t>
+  </si>
+  <si>
+    <t>8. Se acuerda solicitar un informe a la comisión de comunicación conformada con anterioridad, indicando además la necesidad de fortalecer el proceso de comunicación con la población e insistir en actualizar y retomar medidas de control comunitario de la enfermedad (comunicación activa con la comunidad)</t>
+  </si>
+  <si>
+    <t>9. Se acuerda solicitar un informe a la DIRESA Cusco acerca de la forma que se está enfrentando la atención a Pacientes no-covid, el informe debe incluir las dificultades y las alianzas que se debe tener con el nivel privado, ante el ofrecimiento realizado en esta reunión.</t>
+  </si>
+  <si>
+    <t>10. Se acuerda solicitar a la comisión de recursos humanos, conformada con anterioridad, plantear una segunda línea de profesionales ante la posibilidad del incremento próximo de las camas UCI y establecer un plan de funcionamiento adecuado.</t>
+  </si>
+  <si>
+    <t>11. Se acuerda agradecer el ofrecimiento del Dr. Naza Vargas para el uso gratuito de las Camas UCI de la clínica pardo y se sugiere que Essalud y Diresa, mediante una carta de agradecimiento. Se solicita además a la DIRESA y Essalud inicien inmediatamente los procedimientos para hacer efectivo este ofrecimiento y evaluar paralelamente las mejores condiciones para el alquiler de las instalaciones de la Clínica Pardo y la Clínica San José para el tratamiento de pacientes no COVID y COVID moderados.</t>
+  </si>
+  <si>
+    <t>12. Fortalecer el trabajo con los gobiernos locales y conformar una comisión especial, está comisión estaría liderada por CONREDE, a través del Colegio de Antropólogos para mejorar el trabajo con los gobiernos locales.</t>
+  </si>
+  <si>
+    <t>Reunión 22-08</t>
+  </si>
+  <si>
+    <t>1. Se establece la intención de enviar un documento formal a través de la Presidencia del Gobierno Regional para la conformación del Comando de Operaciones COVID-19 del Sur del Perú.</t>
+  </si>
+  <si>
+    <t>2. Se formará una comisión que evalúe la implementación de utilizar pruebas de antígeno además de las pruebas moleculares y rápidas para detectar tempranamente a casos de COVID-19.</t>
+  </si>
+  <si>
+    <t>3. Se debe fortalecer la compra/adquisición de los cascos Helmet para la región del Cusco</t>
+  </si>
+  <si>
+    <t>Reunión 19-08</t>
+  </si>
+  <si>
+    <t>1. Se solicita a la Dirección de Epidemiologia de la Dirección Regional de Salud presentar el Tablero de Mando con indicadores hospitalarios e indicadores de gestión en coordinación con la Dirección Ejecutiva de Atención Integral. En el marco que la información permita tomar y asociar acciones oportunas y concretas a procesos críticos.</t>
+  </si>
+  <si>
+    <t>2. Se informa que la campaña Respira Cusco recibirá donaciones de las personas hasta fines del mes de agosto. Se acuerda convocar a través del Comando COVID, CONREDE y el Arzobispado a las grandes empresas (Minería y centros comerciales entre otros) a realizar donativos a la campaña respira Cusco.</t>
+  </si>
+  <si>
+    <t>3. Se acuerda que los integrantes de la campaña Respira Cusco entregarán el informe final por escrito el día 27 de agosto, incluyendo los resultados de la comisión que determine la distribución de los balones a cada una de las instituciones sanitarias.</t>
+  </si>
+  <si>
+    <t>4. Se conforma una comisión integrada por la Gerencia Regional de Desarrollo Social, CONREDE y el Arzobispado del Cusco para ponerse en contacto con la Empresa de Generación Eléctrica Machupicchu S.A. – EGEMSA para acortar los procesos en relación a la donación de 50,000 soles a la campaña Respira Cusco.</t>
+  </si>
+  <si>
+    <t>5. El Comando Covid-19 se compromete en pleno a participar activamente en el plan de operación Tayta que en el momento cuenta con el liderazgo del Ejército Peruano.</t>
+  </si>
+  <si>
+    <t>6. Se convoca a las 18:00 a una reunión extraordinaria que tendrá una fase presencial con las máximas autoridades sanitarias y una fase virtual con los miembros del Comando COVID-19 para reunirse con la Presidenta Ejecutiva de EsSalud Econ. Fiorella Giannina Molinelli Aristondo.</t>
+  </si>
+  <si>
+    <t>7. Se convoca a una sesión extraordinaria en modalidad presencial a las máximas autoridades sanitarias y virtual para los miembros del Comando para el día sábado 22 de agosto con un integrante del Comando de Operaciones COVID-19 Región Arequipa, el Dr. Jimmy Borja y el presidente del Comando COVID de Arequipa, para compartir experiencias de su lucha contra el COVID-19 en la región Arequipa. La hora de la reunión será comunicada con la debida anticipación.</t>
+  </si>
+  <si>
+    <t>8. Se exhorta bajo responsabilidad a la Comisión de Comunicación conformada por reiterados oficios del Comando de Operaciones COVID-19, presente el informe de trabajo y la ruta establecida para fortalecer el Plan de Comunicación Regional en el que se incluyan todas las iniciativas mencionadas por el Colegio Médico o EsSalud a través del Plan Riq’chari.</t>
+  </si>
+  <si>
+    <t>Reunión 12-08</t>
+  </si>
+  <si>
+    <t>1. Se aprueba la creación de una comisión conformada por los Directores de Hospitales, el Arzobispado del Cusco y Conrede, y se autoriza la firma del “Convenio de préstamo de cilindros” con la empresa OXYMAN COMERCIAL S.A.C., en la cual, tanto el Arzobispado del Cusco como CONREDE actuarán como veedores y benefactores en la firma del convenio a cargo de 100 balones de oxígeno, que se utilizará para cubrir la demanda inmediata de Essalud; asimismo, la comisión estará encargada de coordinar las mejores condiciones del convenio con OXYMAN COMERCIAL S.A.C.</t>
+  </si>
+  <si>
+    <t>2. Esta comisión se encargará de comprar en el menor tiempo posible y al menor costo, los Balones de Oxígeno con sus accesorios, los cuales serán entregados a disposición de la Dirección Regional de Salud Cusco.</t>
+  </si>
+  <si>
+    <t>3. Se exhorta a los hospitales para que, en el marco de la acción colaborativa, cooperarán para compartir los balones de oxígeno y sus accesorios, que se adquirirán o alquilarán con los fondos de la campaña Respira Cusco.</t>
+  </si>
+  <si>
+    <t>4. Se crea una comisión conformada por los Directores de Hospitales, el Director de Diresa Cusco y Directores de Hospitales de Segundo Nivel para definir la distribución de los balones de oxígeno, con los principios de equidad y eficiencia.</t>
+  </si>
+  <si>
+    <t>Reunión 11-08</t>
+  </si>
+  <si>
+    <t>1. Se realizará una reunión extraordinaria del Comando de Operaciones COVID-19 Región Cusco a las 09:00 horas del 12 de agosto del 2020 para tomar la decisión ejecutiva de utilizar los fondos de la campaña respira Cusco.</t>
+  </si>
+  <si>
+    <t>2. La comisión Respira Cusco realizará su informe final y dar las explicaciones para la decisión urgente del destino de los fondos recaudados.</t>
+  </si>
+  <si>
+    <t>3. Se invitará a los miembros de Conrede, Directores de Hospitales, Planificadores, logísticos y asesores legales de la DIRESA y Essalud para que estén presentes en la reunión extraordinaria.</t>
+  </si>
+  <si>
+    <t>4. Se invitará a la empresa Oximan a la reunión a las 10:00am para negociar los términos del alquiler de balones y detalles acerca del contrato.</t>
+  </si>
+  <si>
+    <t>Reunión 10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. El Gobierno Regional Cusco continuará con las gestiones ante el Nivel Nacional para que se haga efectiva la cuarentena absoluta sugerida por las autoridades regionales. Y se solicitará la visita de una comisión de alto nivel a la región del Cusco para tratar puntos relacionados a la respuesta ante la pandemia. </t>
+  </si>
+  <si>
+    <t>2. Se da un plazo adicional de 48 horas a los miembros del Comando Covid para entregar las recomendaciones a la propuesta de Ordenanza Regional, la cual está en estudio por los sectores y el Gobierno Regional. Con la finalidad de establecer medidas adicionales a mediano y/o largo plazo.</t>
+  </si>
+  <si>
+    <t>3. Solicitar a EGEMSA que reduzca la tarifa de electricidad para la planta Cachimayo y/o se establezcan mecanismos en el marco de la Responsabilidad Social Empresarial para facilitar de la provisión de oxígeno en el marco de la atención a la pandemia.</t>
+  </si>
+  <si>
+    <t>4. La Diresa Cusco reforzará las medidas de control tomadas por los comandos provinciales y distritales. Presentando un informe de las gestiones realizadas en un plazo de 78 horas.</t>
+  </si>
+  <si>
+    <t>5. Se solicitará a Industrias Cachimayo para que cumpla estrictamente con los establecido en el convenio entre el Gobierno Regional Cusco, en el sentido de no realizar convenios con privados o con otras instancias sin en acuerdo con la DIRESA Cusco. También solicitara que la demanda del Cusco tiene que ser atendida con prioridad tal como lo establece el convenio firmado.</t>
+  </si>
+  <si>
+    <t>6. Se establecerá una comisión liderada por Diresa para integrar y fortalecer la campaña de comunicación, con mensajes claros, consistentes y constantes, incluyendo a la campaña Riqchari. El informe de la campaña de comunicación y la ruta de trabajo dela misma se presentara en la próxima sesión ordinaria del Comando.</t>
+  </si>
+  <si>
+    <t>7. Se debe mejorar el tiempo de entrega de resultado de pruebas rápidas y moleculares. Mejorar los procesos de funcionamiento del laboratorio de Accamana (contratar más biólogos, duplicar o triplicar los turnos para un funcionamiento las 24 horas del día, contratar más estadísticos e informáticos, implementar un segundo termociclador) y agilizar las gestiones para poner en funcionamiento el laboratorio de La Convención implementado en conjunto con la Universidad Cayetano Heredia. Para tal efecto la DIRESA Cusco presentara en la próxima sesión ordinaria las acciones realizadas para lograr esta mejora.</t>
+  </si>
+  <si>
+    <t>8. Fortalecer el proceso ya establecido por la DIRESA de acuerdo a las guías y protocolos que se han establecido para comunicar sobre el diagnóstico y tratamiento temprano a los pacientes COVID.</t>
+  </si>
+  <si>
+    <t>9. Se exigirá a la Dirección Ejecutiva Nacional de Essalud a cumplir con el ofrecimiento del presidente de la República de implementar 100 camas modulares. Asimismo, se solicitará al Dr. Manchego un informe pormenorizado que incluya la situación de las camas UCI y camas intermedias del Hospital de Essalud, camas no COVID en la clínica O2, el cual deberá de ser presentado en un plazo no mayor a 72 horas.</t>
+  </si>
+  <si>
+    <t>10. En el transcurso de 48 horas la Dirección Regional de Salud dará una respuesta pormenorizada al Memorándum 735 enviado por la Gerencia Regional de Desarrollo Social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Se incluirá en los reportes semanales elaborados por Diresa: Las camas del primer nivel de atención, su ocupación en la región y el número de pacientes atendidos en los Puntos COVID. Dicha información deberá ser entregada a partir del próximo reporte de las sesiones ordinarias. Además, se solicita que como parte del proceso de mejora continua se establezca una ruta de trabajo para informar sobre el promedio de permanencia de los pacientes en camas intermedias y camas UCI, así como el porcentaje de pacientes intermedios que pasan a cuidados críticos. </t>
+  </si>
+  <si>
+    <t>12. Se exhorta a la Diresa Cusco a que través de los hospitales se mejoren los procesos de referencia en el marco de las recomendaciones hechas por la fiscalía. Se establecerán mecanismos concretos para evitar negligencias y se realizará una reunión extraordinaria del Comando COVID el día Martes a las 15:00 pm de forma virtual, con la participación del Director de DIRESA, los Directores de los 3 hospitales y Responsables de referencia y contra referencia de los mismos, así como Jefes de Guardia, para evitar que se siga incurriendo en las negligencias reportadas por la fiscalía.</t>
+  </si>
+  <si>
+    <t>13. Se exhorta a que los hospitales, según lo establecido en la norma, no nieguen la visita de personal médico de otras instituciones, en visita de seguimiento a sus pacientes.</t>
+  </si>
+  <si>
+    <t>14. Se establecerá una reunión entre la DIRESA Cusco y las máximas autoridades Sanitarias de las Fuerzas Armadas y Policiales, reunión que deberá ser promovida por la DIRESA Cusco y cuyo resultado será presentado en la próxima reunión ordinaria.</t>
+  </si>
+  <si>
+    <t>15. Se establecerá el mecanismo para fortalecer el proceso de cremación e inhumación para lo cual la comisión establecida debe presentar un informe, especificando la ruta de trabajo, el mismo que será entregado en la próxima reunión ordinaria.</t>
+  </si>
+  <si>
+    <t>Reunión 03-08</t>
+  </si>
+  <si>
+    <t>1. Solicitar a la Presidencia del Consejo de Ministros, que explique las razones por las cuales en el Artículo 2 del DS. 135-2020-PCM menciona que el desplazamiento de las personas “se realiza únicamente para la prestación y acceso a servicios y bienes esenciales”; pero en el mismo artículo menciona que se incluye “la prestación de servicios de las actividades económicas autorizadas a la entrada en vigencia del decreto supremo”. Siendo estas en gran parte contradictorias.</t>
+  </si>
+  <si>
+    <t>2. Exigir al nivel nacional, que como parte del DS-135-2020-PCM, se modifique la inclusión de la oración “se incluye la prestación de servicios de las actividades económicas autorizadas a la entrada en vigencia del decreto supremo” en el Artículo 2, y se permita el regreso a la Fase 2 de reactivación económica en las provincias del Cusco y la Convención. Asimismo, tal petición se realizará con un informe de la Dirección Regional de Salud con el fin de justificar la solicitud del Comando de Operaciones COVID Regional.</t>
+  </si>
+  <si>
+    <t>3. En tanto se realice la coordinación con el nivel nacional, se debe fiscalizar adecuadamente a las empresas comprendidas en la fase 3, así como protocolizar sus actividades para evitar transmisión de COVID-19.</t>
+  </si>
+  <si>
+    <t>4. Solicitar a los integrantes del Comando de Operaciones Covid, que, en un lapso de 48 horas, presenten sus observaciones a la propuesta de Ordenanza Regional que establece lineamientos de cuarentena inteligente y lineamientos adicionales a los propuestos por el nivel nacional</t>
+  </si>
+  <si>
+    <t>5. Solicitar a la Gerencia de Planeamiento del Gobierno Regional, que, en un plazo de 48 horas, presenten al Comando de Operaciones, un cronograma de la gestión presupuestal relacionada a la pandemia causada por COVID-19, incluyendo el avance de IOARR y proyectos en Salud que se tienen en marcha.</t>
+  </si>
+  <si>
+    <t>6. Solicitar al Funcionario Econ. Igor Elorrieta, que en un plazo de 48 horas presente los alcances, acuerdos y procesos necesarios para la gestión de provisión de oxígeno a los hospitales de tercer nivel, las clínicas privadas y las personas particulares que deseen adquirir oxígeno medicinal.</t>
+  </si>
+  <si>
+    <t>7. Exhortar a la población cusqueña, a través de un pronunciamiento del Comando COVID, que será elaborado por el economista Igor Elorrieta en el que se indique la manera correcta de proveer oxígeno a personas particulares, con el fin de no generar desorden en la planta de Cachimayo.</t>
+  </si>
+  <si>
+    <t>8. Aprobar la inclusión de la participación de la Cámara de Comercio del Cusco en la Campaña Respira Cusco para fortalecer el trabajo del Arzobispado, Conrede y la Gerencia Regional de Desarrollo Social</t>
+  </si>
+  <si>
+    <t>9. Agradecer la participación de la Cámara de Comercio del Cusco, la cual entregara una propuesta con la oferta de hoteles para que sean centros de atención temporal (CATS) de pacientes leves e intermedios, de bajo riesgo.</t>
+  </si>
+  <si>
+    <t>10. Solicitar a la DIRESA, que, presente un informe acerca del uso de Plasma como tratamiento para las personas con COVID-19.</t>
+  </si>
+  <si>
+    <t>11. El Comando Covid Regional emitirá un documento exhortando a las Comunidades de Espinar a que permitan pasar a los camiones con balones de oxígeno debido a que estos son fundamentales para el cuidado de la vida de los pacientes que se encuentran en hospitales. Paralelamente se solicitara al Gobernador Regional para que interceda ante estas comunidades para que dejen pasar los balones de forma segura.</t>
+  </si>
+  <si>
+    <t>Reunión 31-07</t>
+  </si>
+  <si>
+    <t>1. Se autoriza la emisión del Comunicado Oficial en relación a la cuarentena focalizada, que fue compartido y socializado con los miembros del Comando COVID Regional.</t>
+  </si>
+  <si>
+    <t>2. Los miembros del Comando COVID precisarán a nivel procedimental, los alcances de la cuarentena focalizada a través de la revisión del proyecto de ordenanza regional, que será alimentado con los aportes de los miembros y será discutido en la reunión ordinaria del 03 de agosto.</t>
+  </si>
+  <si>
+    <t>1. Solicitar a la Dirección Regional de Salud que se incremente el uso de pruebas moleculares en la región del Cusco, el incremento de los equipos de respuesta rápida, y el trabajo remoto de los hospitales. Asimismo, se pide que se haga seguimiento de los pacientes diagnosticados haciendo uso de los call center. También se solicita que se coloquen puntos fijos de atención descentralizada, y la implementación de centros de aislamiento temporal (CATS) para un aislamiento adecuado de los pacientes que no cuenten con las condiciones en sus domicilios.</t>
+  </si>
+  <si>
+    <t>2. Implementar un cronograma de actividades a través de un Tablero de Mando, con el objetivo de monitorear los acuerdos del Comando Covid de forma estricta y establecer indicadores que permitan tomar medidas excepcionales y transitorias de manera focalizada en la región del Cusco.</t>
+  </si>
+  <si>
+    <t>3. Solicitar a la Gerencia General del Gobierno Regional que determine quién reemplazará en sus funciones al exasesor Igor Elorrieta en la conducción y seguimiento del PMO y el equipo de gestión y seguimiento de la provisión de Oxígeno.</t>
+  </si>
+  <si>
+    <t>4. Exhortar a los miembros del Comando Covid Regional, así como a sus Instituciones Públicas a que se sumen a la colecta regional de Respira Cusco, para lo cual se comparte las cuentas corrientes en el marco de hacer los depósitos correspondientes.</t>
+  </si>
+  <si>
+    <t>5. Exhortar a que la comisión encargada de la devolución de balones de oxígeno acelere los procesos administrativos y legales, y que en caso se inicien las acciones legales ya sea por los proveedores particulares o por el estado, que la fiscalía atienda de manera célere estas denuncias. Asimismo, las gestiones de este equipo incluirán la colecta de balones prestados por las Redes de Salud, balones que puedan ser donados por hoteles en coordinación con la DIRCETUR, y aquellos que tengan la asociación de soldadores, tomando en cuenta el análisis de la condición de cada uno de los balones y las pruebas hidrostáticas correspondientes.</t>
+  </si>
+  <si>
+    <t>6. Se acuerda compartir el spot de Respira Cusco para que sea difundido a través de las Páginas Web de las Instituciones del Comando Covid, y mediante los servidores públicos de estas instituciones.</t>
+  </si>
+  <si>
+    <t>7. Exhortar desde el comando a la Dirección Regional de Salud y Essalud que exista estabilidad en el trabajo de los equipos de respuesta rápida, y que estos equipos puedan tener las condiciones y los incentivos adecuados para que trabajen de la mejor manera.</t>
+  </si>
+  <si>
+    <t>8. Los integrantes del Comando Covid dan respaldo a la decisión de autorizar el uso del oxígeno asumida por el Dr. Darío Navarro y la Diresa en atención a la necesidad urgente de las personas que demandan este insumo y tienen riesgo de vida.</t>
+  </si>
+  <si>
+    <t>9. Se acuerda fortalecer las Campañas de Comunicación e implementar la campaña Riq’chari Qosqo planteada por Essalud, en la que se pide la participación activa de los miembros de las Instituciones Públicas, para que, en el lapso de la semana, sea una campaña de cambio para la población cusqueña.</t>
+  </si>
+  <si>
+    <t>10. Se exhorta a las instituciones públicas de la región a realizar trabajo remoto en la medida de sus posibilidades, con excepción de aquellas áreas que tengan que asistir a las instituciones de manera presencial.</t>
+  </si>
+  <si>
+    <t>11. Se exhorta a la población cusqueña a que mientras dure el trámite de solicitud de cuarentena focalizada en la Provincia del Cusco, se realice una cuarentena voluntaria, que tenga medidas inteligentes y que incluya un plan de soporte económico en respuesta a los problemas de índole económico que puedan generarse durante la aplicación de estas medidas.</t>
+  </si>
+  <si>
+    <t>Reunión 27-07</t>
+  </si>
+  <si>
+    <t>Reunión 23-07</t>
+  </si>
+  <si>
+    <t>1. Se acuerda solicitar al Nivel de Gobierno Nacional a través de la Presidencia del Consejo de Ministros, la inclusión de la provincia del Cusco en la declaración de cuarentena obligatoria por un período de 14 días. La cuarentena incluye la restricción de transporte aéreo y terrestre, así como el cierre de las fronteras de la región del Cusco.</t>
+  </si>
+  <si>
+    <t>2. En ese sentido, se acuerda insistir al nivel nacional para que se emita el decreto Supremo correspondiente para declarar en estado de cuarentena a las provincias del Cusco y La Convención.</t>
+  </si>
+  <si>
+    <t>3. Disponer que la DIRESA Cusco presente un informe de implementación con medidas adicionales de cuarentena inteligente, que se implementarán transitoriamente mientras se aprueba la declaratoria de cuarentena en las provincias del cusco y La convención. Las medidas transitorias incluyen el trabajo remoto y la suspensión de las actividades en el sector público los días sábado 25 y martes 28 mientras se espera la autorización de Declaratoria de cuarentena del Nivel Nacional.</t>
+  </si>
+  <si>
+    <t>4. Se aprueba el plan de trabajo Riq’chari presentado por Essalud Cusco, y se insta a que, en la brevedad, y en coordinación con la Dirección de Salud, la Dirección de Relaciones Publicas del Gobierno Regional y con e apoyo del Colegio de Periodistas, sea implementado con recursos del Gobierno Regional y sus órganos desconcentrados.</t>
+  </si>
+  <si>
+    <t>5. Disponer que DIRESA Cusco lidere a una comisión conformada por la Comandancia del ejército, un Representante de clínicas privadas, los directores de hospitales, Essalud, Decano del Colegio Médico, presidentes de los cuerpos médicos de los tres hospitales de la ciudad para evaluar la implementación de anillos de contención para casos leves y moderados, en caso ya previsto de que el sistema sanitario colapse. En esta evaluación, se contemplará entre otros locales, el uso del estadio Garcilaso, Colegios Emblemáticos, hoteles, Clínicas, Universidades, entre otros. Asimismo, se debe presentar un plan de acción con una hoja de ruta crítica y presupuestos estimados en un lapso no mayor de 48 horas.</t>
+  </si>
+  <si>
+    <t>6. Se aprueba emitir un agradecimiento público de parte del comando COVID Regional y se solicita lo propio al Gobierno Regional Cusco por el ofrecimiento hecho por el Dr. Ángel Vargas – Representante/Gerente de la Clínica O2, para ceder la clínica en Huancaro y la clínica de Yanahuara.</t>
+  </si>
+  <si>
+    <t>7. Disponer que los alcaldes de la provincia del Cusco apoyen activamente a la realización de la campaña RESPIRA CUSCO en coordinación con el Arzobispado del Cusco y CONREDE.</t>
+  </si>
+  <si>
+    <t>8. Reiterar al nivel Nacional, mediante documento de la Presidencia del Comando y del Gobierno Regional que el Comando COVID Nacional y la Ministra de Salud visiten la ciudad del Cusco a la brevedad posible para apoyar en los procesos del sistema sanitario del Cusco.</t>
+  </si>
+  <si>
+    <t>9. Disponer la conformación una comisión liderada por la Gerencia General Regional, y compuesta por la Gerencia Regional de Desarrollo Económico del Gobierno Regional y los Alcaldes Distritales para elaborar un plan de contención económico para que la población pobre o en extrema pobreza pueda soportar una cuarentena adicional, con la consideración que el desempleo en la ciudad del Cusco está por encima del 30%. Este plan deberá ser entregado en un plazo máximo de 72 horas bajo responsabilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. El comando reiterara la necesidad de incrementar los recursos humanos y el presupuesto necesario para los Hospitales, mejorar los procesos de diagnóstico y búsqueda, iniciar tratamiento temprano con Ivermectina a los pacientes con sospecha de enfermedad y factores de riesgo, siguiendo y actualizando periódicamente los protocolos sanitarios y adaptándolos de manera compasiva y mientras se completan las investigaciones al respecto al contexto actual. </t>
+  </si>
+  <si>
+    <t>11. Reiterar mediante documento de la Presidencia del Comando y del Gobierno Regional, que Essalud Lima, representada por su presidenta Fiorella Molinelli,  cumpla con el ofrecimiento de las 100 camas intermedias y 10 Ventiladores Mecánicos, que en este momento están generando una brecha importante a Essalud; considerando además que Nuestro Hospital Adolfo Guevara atiende adicionalmente a los Departamentos de Madre de Dios y Apurímac y que el Presidente de la Republica ha comprometido este apoyo con vistos a finales de este mes.</t>
+  </si>
+  <si>
+    <t>12. Instar y reiterar por medio del Comando Covid al Gobierno Regional Cusco, a optimizar la entrega de los IOARR y los procesos relacionados a la Salud que se tienen en Marcha.</t>
+  </si>
+  <si>
+    <t>Reunión 20-07</t>
+  </si>
+  <si>
+    <t>1. Se establece la necesidad de tomar medidas sanitarias y de control en la provincia del Cusco, que incluyan medidas de aislamiento, cuarentena focalizada y controles en mercados y abastecimiento, transporte, bancos y otros conglomerados para tomar acciones concretas con gestión de procesos, para lo cual, se convocará a una reunión a las Direcciones Responsables: Dirección Regional de Agricultura, Dirección Regional de Trabajo, Dirección Regional de la Producción, Dirección Regional de Transportes y otras instituciones que deseen participar. La DIRESA liderara el proceso a través de alguna de sus dependencias.</t>
+  </si>
+  <si>
+    <t>2. Exhortar a que, en el plazo más breve posible, se otorgue el permiso a Essalud de manera transitoria para que puedan tener acceso al oxígeno medicinal de Industrias Cachimayo. Al mismo tiempo, el Comando de operaciones toma la decisión compasiva hacia los pacientes que necesitan este medicamento y en el marco de una situación de emergencia solicitan a la DIRESA y a la Empresa Cachimayo que aceleren los procesos para abastecer de oxígeno a los tanques de Essalud; mientras se realizan las coordinaciones para el permiso correspondiente, aliviando así el proceso burocrático en beneficio de la vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Disponer que el 100% de los ventiladores mecánicos entregados por el MINSA y otros equipos médicos prioritarios, sean puestos en Operación en el Hospital Antonio Lorena, y solicitar a la autoridad competente, DIRESA, OCI, Su salud, que realicen las asistencias y verificación del mejor uso de estos recursos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Si en hospital regional o Lorena no habilitan estos recursos criticos, se autoriza para que los mismos se presten al hospital de Essalud mientras llegan los propios, et. No se puede tener ningún equipo en desuso, los equipos que puedan estar a disposición deben de facilitarse, para ello se establece que Essalud y la DIRESA realicen las coordinaciones necesarias para lograr este objetivo. </t>
+  </si>
+  <si>
+    <t>5. Se deja abierta la posibilidad de realizar una cuarentena focalizada y se pide un informe para que la DIRESA a través de la Dirección de Inteligencia Sanitaria y epidemiologia, y en un plazo no mayor de 48 horas; de recomendaciones y/o medidas para disminuir la incidencia de casos en la Provincia del Cusco.</t>
+  </si>
+  <si>
+    <t>6. El Gobierno regional luego de recibir las recomendaciones de la DIRESA establecerá mediante un decreto Regional las medidas de prevención y control en instituciones públicas, incluyendo reforzar el trabajo remoto, el uso de la mascarilla facial, el uso de la mascarilla quirúrgica (no comunitaria), y aforos obligatorios a instituciones públicas, así como el control periódico de la normatividad nacional ya establecida.</t>
+  </si>
+  <si>
+    <t>7. Se aprueba el plan de trabajo de la campaña “Respira Cusco” por el Arzobispado y CONREDE. El miércoles se presenta campaña en el Arzobispado, los miembros del comando se comprometen a contribuir oficios en sus dependencias para promover la recolección de recursos.</t>
+  </si>
+  <si>
+    <t>8. El Comando de Operaciones COVID enviará una solicitud al nivel nacional para que la región del Cusco se incorpore a la propuesta de Convenios con clínicas privadas. Esta misma Gestión la realizara la DIRESA por su parte y bajo responsabilidad.</t>
+  </si>
+  <si>
+    <t>9. Se aprueba la cuarentena absoluta en la Provincia de la Convención en el marco del oficio 287-2020 enviado a la Presidencia del Consejo de Ministros el 16 de julio, teniendo en cuenta la demora en el marco del cambio reciente en La Cartera Presidencial y la Licencia del Gobernador Regional por temas de salud.</t>
+  </si>
+  <si>
+    <t>10. Aprobar la conformación del Comando Vacuna o el que haga sus veces que será asumido por el Consejo Regional de Salud Cusco (CORESA), liderado por el Sub Director de la DIRESA Cusco; para que gestione los procesos previstos y mencionados por el presidente del comando COVID en un escenario totalmente atípico y complejo de vacunación.</t>
+  </si>
+  <si>
+    <t>Reunión 13-07</t>
+  </si>
+  <si>
+    <t>1. Se reiterará con documento que DIRESA informe sobre la gestión de la información, procesos e incongruencias en la data a nivel nacional e interior de la Dirección de Inteligencia Sanitaria y Epidemiologia.</t>
+  </si>
+  <si>
+    <t>2. Solicitar a la Dirección de Epidemiología, a través de la Dra. Fátima Concha, se presente la información de la sala de situación COVID-19 en un formato más amigable. Asimismo, tal información debe asociarse a recomendaciones para la acción. (Información para la acción)</t>
+  </si>
+  <si>
+    <t>3. Se aprueba la campaña Respira Cusco, cuyo plan de trabajo preliminar debe de ser entregado en un plazo de 48 horas.</t>
+  </si>
+  <si>
+    <t>4. Encargar a la Dirección Regional de Salud realizar un inventario de las donaciones, para que, en el marco de la transparencia, el Arzobispado del Cusco actúe como veedor en futuras donaciones.</t>
+  </si>
+  <si>
+    <t>5. Encargar al Director del Hospital Regional, M.C. Félix Hidalgo, elaborar el plan del Centro de Desarrollo de Competencias COVID, para garantizar capacitaciones, tomando como prioridad a anillos de  contención, Sicuani, Urubamba, Anta, Megantoni, Quillabamba y Centros de Salud que se encuentren definidos como tal.</t>
+  </si>
+  <si>
+    <t>6. Encargar a DIRESA la conformación de la comisión científica para evaluar el uso de Ivermectina de manera profiláctica y terapéutica y presentar los resultados antes de la próxima reunión.</t>
+  </si>
+  <si>
+    <t>7. Solicitar a DIRESA el pronunciamiento sobre medidas de restricción de Control en el Cusco, tales como desplazamiento de menores de edad y aquellos que realizan deportes en zonas de incidencia.</t>
+  </si>
+  <si>
+    <t>8. Se aprueba la necesidad de realizar cuarentena focalizada en distritos de La Convención, coordinando con autoridades Nacionales y Locales.</t>
+  </si>
+  <si>
+    <t>9. Se recibe el informe del 2do vuelo humanitario organizado por CONREDE, que será entregado de manera física en el transcurso de la semana, también se aprueba la donación de excedentes monetarios para equipos de protección personal que serán posteriormente entregados por el Colegio Médico a los médicos que enfrentan la pandemia.</t>
+  </si>
+  <si>
+    <t>10. Encargar a DIRESA que garantice medicamentos necesarios para la Unidad de Cuidados intensivos a través de las Redes de Hospitales y requerimientos a las farmacias privadas y otras empresas que contribuyan a garantizar medicamentos.</t>
+  </si>
+  <si>
+    <t>Reunión 06-07</t>
+  </si>
+  <si>
+    <t>1. Revisión final de la Ordenanza Regional el día miércoles para plantear medidas adicionales de cierre de fronteras con las municipalidades provinciales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enviar documento al Ministerio de Salud en relación a los 10 equipos de salud que fueron ofrecidos al comando COVID y que no han sido entregados. Validado por la Dirección Regional de Salud. </t>
+  </si>
+  <si>
+    <t>3. Solicitar a la empresa Cachimayo un pronunciamiento a la reunión del Comando COVID para acelerar la firma del convenio en el marco de máxima responsabilidad social empresarial.</t>
+  </si>
+  <si>
+    <t>4. Conformar comisión de clínicas privadas, directores de hospitales, la dirección regional de salud (encargado) y sus dependencias para realizar el inventario de equipos y plan de implementación en áreas de cuidados críticos a ser presentada en 48 horas a este comando</t>
+  </si>
+  <si>
+    <t>5. Conformación de comisión de 3 hospitales con direcciones de recursos humanos para enviar propuesta de áreas priorizadas/críticas y solicitar al Ministerio de Salud un mecanismo de incentivos (bono a trabajadores) para todo el personal de salud. (Evaluar la transferencia de recursos en función al D.S. 053)</t>
+  </si>
+  <si>
+    <t>6. Incluir a la iglesia católica para hacer una campaña de provisión de balones de oxígeno. CONREDE junto con el arzobispado implementaran una ruta de trabajo para lograr la provisión de los balones de oxígeno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Se desestima la solicitud de inclusión de la federación médica al comando COVID-19. </t>
+  </si>
+  <si>
+    <t>8. Reconsideración de la participación del consejo médico en el comando COVID-19.</t>
+  </si>
+  <si>
+    <t>9. Se aprueba el decreto N° 006 y sus modificatorias.</t>
+  </si>
+  <si>
+    <t>10. Plan de trabajo será presentado de manera amigable por Zoom el día miércoles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Compartir los 15 ventiladores requiere un análisis especial que tiene que ver con el inventario y como una propuesta de solución. </t>
+  </si>
+  <si>
+    <t>Reunión 02-07</t>
+  </si>
+  <si>
+    <t>1. El presidente del comando, indica que se tomara en cuenta la observación de la fiscalía y se propone mejorar la redacción del documento para determinar puntualmente las funciones del COMANDO COVID, el documento con las sugerencias se enviara mañana para sus aportes.</t>
+  </si>
+  <si>
+    <t>2. Así mismo se indica que se emitirá un reconocimiento por las labores prestadas, al Dr. Pablo Grajeda y al Dr. Alex Jaramillo, que han tenido una labor destacada y han contribuido en gran manera a la consecución a los logros obtenidos</t>
+  </si>
+  <si>
+    <t>3. Se revisará y corregirá el documento y se enviará al área de Asesoría Legal para su revisión además de pedir opinión a procuraduría y las áreas correspondientes para alinear las funciones a nivel de todo el gobierno regional.</t>
+  </si>
+  <si>
+    <t>4.  Se debe implementar un plan para la provincia de la Convención que deberá ser entregado en un plazo de 48 horas. En este plan. la Diresa Cusco solicitará el retorno de los médicos especialistas de la Convención, especialmente del especialista que ha sido destacado a Ate Vitarte con apoyo de la gobernatura y comando covid (check)</t>
+  </si>
+  <si>
+    <t>5. El hospital regional compartirá y replicará acciones con el hospital de la Convención a través de un plan para mejorar las competencias del hospital de Quillabamba mediante pasantías de médicos especialistas.</t>
+  </si>
+  <si>
+    <t>6. EL Dr. Félix Hidalgo solicita tener en cuenta las terapias alternativas, para tratar el COVID 19 mediante la utilización de ozono terapia para manejar pacientes moderados para que éstos no lleguen a críticos</t>
+  </si>
+  <si>
+    <t>7. Comando COVID deberá dar asistencia a los comandos provinciales de acuerdo a un plan de trabajo mejorado por fases, este plan será enviado en un plazo no mayor de 48 horas revisado por asesoría jurídica y reformulado en el marco del fortalecimiento de este comando- Se propone que el comando COVID se reúna con los comandos provinciales todos los días miércoles a las 11 de la mañana creando una ruta para esta reunión.</t>
+  </si>
+  <si>
+    <t>8. La DIRESA Cusco, a solicitud del Dr Dario Navarro presentará un plan de intervención con recursos propios sin considerar los IOAR para implementar 300 camas de cuidados intermedios en los anillos que se tiene en Sicuani, Urubamba, Anta, Megantoni Quillabamba y áreas que se encuentran en estos anillos de contención, sin considerar los IOAR camas intermedias en anillos de contención plan que se debe presentar en un plazo de 48 hora</t>
+  </si>
+  <si>
+    <t>9. Se debe presentar un proyecto de ordenanza en un plazo máximo de 48 horas elaborado por un equipo conformado por la Policia, ejercito, Diresa, Essalud, desarrollo social. Esta es la comisión deberá elaborar una propuesta de ordenanza para que sea tratada en una reunión ordinaria o extraordinaria del consejo Regional para tratar a cada provincia de acuerdo a la fase en la que se encuentre, el tema seria la transitabilidad, puestos de control y requerimiento para esta transitabilidad sea viable para evitar confusiones en las diferentes provincias o distritos que han establecido sus propios protocolos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Se pedirá al colegio de periodistas, a la dirección de RRPP, y a las oficina de comunicaciones de la Diresa que en el lapso de 48 horas se reúnan y presenten una propuesta del comando COVID sobre el cambio de estrategia y nuevo escenario de transmisión epidemiológica que ya se está viendo en las calles y que ha incrementado los contagios. </t>
+  </si>
+  <si>
+    <t>COLEGIO DE PERIODISTAS, DIRESA</t>
+  </si>
+  <si>
+    <t>POLICÍA NACIONAL, DIRESA, ESSALUD, GERENCIA DE DESARROLLO SOCIAL</t>
+  </si>
+  <si>
+    <t>HOSPITAL REGIONAL</t>
+  </si>
+  <si>
+    <t>HOSPITAL REGIONAL, HOSPITAL ANTONIO LORENA</t>
+  </si>
+  <si>
+    <t>CLINICAS PRIVADAS</t>
+  </si>
+  <si>
+    <t>DIRESA, CORESA</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>ESSALUD, DIRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRAGRI, DRTTPE, DIREPRO, </t>
+  </si>
+  <si>
+    <t>GGR, GRDE, MUNICIPALIDADES DISTRITALES</t>
+  </si>
+  <si>
+    <t>COLEGIO DE ANTROPOLOGOS,</t>
+  </si>
+  <si>
+    <t>GOBIERNO REGIONAL, DIRESA</t>
+  </si>
+  <si>
+    <t>MUNICIPALIDAD DISTRITAL DE MEGANTONI</t>
+  </si>
+  <si>
+    <t>GRI, DIRESA</t>
+  </si>
+  <si>
+    <t>SUBGERENCIA DE COMUNIDADES ANDINAS Y AMAZÓNICAS</t>
+  </si>
+  <si>
+    <t>POLICÍA NACIONAL, EJERCITO, DIRESA CUSCO</t>
+  </si>
+  <si>
+    <t>COLEGIO DE PSICÓLOGOS</t>
   </si>
 </sst>
 </file>
@@ -610,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -663,9 +1286,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,10 +1303,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +1311,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,368 +1615,2895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="32" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="C4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="29" t="s">
+    <row r="17" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="18" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A81" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="124.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A157" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A160" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B161" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="29" t="s">
-        <v>55</v>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A170" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A174" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B174" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A175" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A176" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A180" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B180" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B184" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B186" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +4527,7 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
     <col min="7" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="37.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
@@ -1390,10 +4548,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="21" t="s">
         <v>42</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -1447,9 +4605,9 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="F2" s="21"/>
       <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1498,9 +4656,9 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1549,7 +4707,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +4756,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +4805,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +4852,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1734,7 +4892,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1775,7 +4933,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1816,7 +4974,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1857,7 +5015,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1898,7 +5056,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -1939,7 +5097,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1980,7 +5138,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2021,7 +5179,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -2062,7 +5220,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -2103,7 +5261,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2144,7 +5302,7 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2185,7 +5343,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2226,7 +5384,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2267,7 +5425,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2308,7 +5466,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2349,7 +5507,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2390,7 +5548,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2431,7 +5589,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2472,7 +5630,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2513,7 +5671,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -2554,7 +5712,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -2595,7 +5753,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2636,7 +5794,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -2677,7 +5835,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -2718,7 +5876,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -2759,7 +5917,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -2800,7 +5958,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2841,7 +5999,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2882,7 +6040,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -2923,7 +6081,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2964,7 +6122,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -3005,7 +6163,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3046,7 +6204,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3087,7 +6245,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3128,7 +6286,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3169,7 +6327,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3210,7 +6368,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3251,7 +6409,7 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -3288,7 +6446,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="24"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3325,7 +6483,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="24"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3362,7 +6520,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="24"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3399,7 +6557,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="24"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3436,7 +6594,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="24"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3473,7 +6631,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="24"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3510,7 +6668,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="24"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3547,7 +6705,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="24"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3584,7 +6742,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="24"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3621,7 +6779,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3658,7 +6816,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3722,18 +6880,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>

--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="324">
   <si>
     <t>SGNGSR - EMITIDOS 2020</t>
   </si>
@@ -148,9 +148,6 @@
     <t>CONREDE</t>
   </si>
   <si>
-    <t>Preguntar a eva acerca de los avances</t>
-  </si>
-  <si>
     <t>OFICIO N°</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>Documento Remitido</t>
-  </si>
-  <si>
-    <t>Se incluye en la agenda. seguimiento</t>
   </si>
   <si>
     <t>1,	La Dirección Regional de Salud Cusco y EsSalud Cusco presentarán, mediante un informe escrito, un plan de Contingencia ante un posible escenario adverso originado por la movilización y las experiencias en otros países, El informe debe incluir la disponibilidad de camas UCI, insumos críticos, gestión hospitalaria y de recursos humanos, El informe será presentado en un plazo de una semana y será presentado por los titulares en la próxima sesión del Comando COVID,</t>
@@ -916,13 +910,103 @@
   </si>
   <si>
     <t>COLEGIO DE PSICÓLOGOS</t>
+  </si>
+  <si>
+    <t>Documento de Respuesta</t>
+  </si>
+  <si>
+    <t>OFICIO MÚLTIPLE 045-2020</t>
+  </si>
+  <si>
+    <t>No requiere</t>
+  </si>
+  <si>
+    <t>OFICIO MÚLTIPLE 047-2020</t>
+  </si>
+  <si>
+    <t>OFICIO MÚLTIPLE 046-2020</t>
+  </si>
+  <si>
+    <t>INFORME 1707-2020-GR CUSCO-GRI-SGO</t>
+  </si>
+  <si>
+    <t>OFICIO 185-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 220-GRACU-ESSALUD-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 222-GRACU-ESSALUD-2020</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Se debe esperar a la devolución de la empresa Oxíman para convocar a una reunión Extraordinaria</t>
+  </si>
+  <si>
+    <t>El arzobispado no puede presentar el informe final hasta que Oxíman devuelva el dinero a la cuenta del arzobispado</t>
+  </si>
+  <si>
+    <t>OFICIO 183-2020</t>
+  </si>
+  <si>
+    <t>DIRCETUR está coordinando las capacitaciones a los Comandos Provinciales con el colegio de Antropologos y DIRESA</t>
+  </si>
+  <si>
+    <t>Gobernatura envió la propuesta de Semáforo al MINSA para su revisión y posterior aprobación</t>
+  </si>
+  <si>
+    <t>No recibido</t>
+  </si>
+  <si>
+    <t>Se realizó una reunión zoom con los especialistas. Se acordó crear un grupo y compartir experiencias para utilizar un modelo de machine learning</t>
+  </si>
+  <si>
+    <t>OFICIO 554-2020-GR-CUSCO-GR</t>
+  </si>
+  <si>
+    <t>Se ha enviado el semaforo al MINSA. El Plan de Mediano Plazo se debe aprobar con Resolución Ejecutiva Regional</t>
+  </si>
+  <si>
+    <t>OFICIO 180-2020</t>
+  </si>
+  <si>
+    <t>ESSALUD: OFICIO 207-GRACU-ESSALUD-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 176-GRACU-ESSALUD-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 073-2020-CONREDE CUSCO/DP</t>
+  </si>
+  <si>
+    <t>OFICIO 179-2020</t>
+  </si>
+  <si>
+    <t>INFORME N° 2984-2020-GR CUSCO/DRSC-DEAIS</t>
+  </si>
+  <si>
+    <t>OFICIO 178-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 177-2020</t>
+  </si>
+  <si>
+    <t>INFORME 2916-2020-GR CUSCO/DRSC-DEAIS</t>
+  </si>
+  <si>
+    <t>OFICIO MULTIPLE 043-2020</t>
+  </si>
+  <si>
+    <t>EXPOSICIÓN EN REUNIÓN DEL 13-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,8 +1078,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,6 +1096,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,15 +1400,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1325,6 +1413,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,2896 +1733,3368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="32" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18" style="29" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="30" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="E23" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="B24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="D25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="D28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="34" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="35"/>
+    </row>
+    <row r="48" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="35"/>
+    </row>
+    <row r="50" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="35"/>
+    </row>
+    <row r="52" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="35"/>
+    </row>
+    <row r="53" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="35"/>
+    </row>
+    <row r="54" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="35"/>
+    </row>
+    <row r="58" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="35"/>
+    </row>
+    <row r="64" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="35"/>
+    </row>
+    <row r="82" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" s="35"/>
+    </row>
+    <row r="86" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" s="35"/>
+    </row>
+    <row r="89" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="35"/>
+    </row>
+    <row r="95" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" s="35"/>
+    </row>
+    <row r="99" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="35"/>
+    </row>
+    <row r="100" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" s="35"/>
+    </row>
+    <row r="101" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H101" s="35"/>
+    </row>
+    <row r="102" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="35"/>
+    </row>
+    <row r="104" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="35"/>
+    </row>
+    <row r="105" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" s="35"/>
+    </row>
+    <row r="106" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H106" s="35"/>
+    </row>
+    <row r="107" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H107" s="35"/>
+    </row>
+    <row r="108" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" s="35"/>
+    </row>
+    <row r="109" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H109" s="35"/>
+    </row>
+    <row r="110" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" s="35"/>
+    </row>
+    <row r="111" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" s="35"/>
+    </row>
+    <row r="112" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H112" s="35"/>
+    </row>
+    <row r="113" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" s="35"/>
+    </row>
+    <row r="114" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H114" s="35"/>
+    </row>
+    <row r="115" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="35"/>
+    </row>
+    <row r="116" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H116" s="35"/>
+    </row>
+    <row r="117" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H117" s="35"/>
+    </row>
+    <row r="118" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H118" s="35"/>
+    </row>
+    <row r="119" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" s="35"/>
+    </row>
+    <row r="120" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="35"/>
+    </row>
+    <row r="121" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" s="35"/>
+    </row>
+    <row r="122" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" s="35"/>
+    </row>
+    <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" s="35"/>
+    </row>
+    <row r="124" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H124" s="35"/>
+    </row>
+    <row r="125" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H125" s="35"/>
+    </row>
+    <row r="126" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="35"/>
+    </row>
+    <row r="127" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H127" s="35"/>
+    </row>
+    <row r="128" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="35"/>
+    </row>
+    <row r="129" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H129" s="35"/>
+    </row>
+    <row r="130" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H130" s="35"/>
+    </row>
+    <row r="131" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H131" s="35"/>
+    </row>
+    <row r="132" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H132" s="35"/>
+    </row>
+    <row r="133" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" s="35"/>
+    </row>
+    <row r="134" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H134" s="35"/>
+    </row>
+    <row r="135" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="35"/>
+    </row>
+    <row r="136" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H136" s="35"/>
+    </row>
+    <row r="137" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H137" s="35"/>
+    </row>
+    <row r="138" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C138" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" s="35"/>
+    </row>
+    <row r="139" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H139" s="35"/>
+    </row>
+    <row r="140" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" s="35"/>
+    </row>
+    <row r="141" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" s="35"/>
+    </row>
+    <row r="142" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" s="35"/>
+    </row>
+    <row r="143" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" s="35"/>
+    </row>
+    <row r="144" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" s="35"/>
+    </row>
+    <row r="145" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H145" s="35"/>
+    </row>
+    <row r="146" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" s="35"/>
+    </row>
+    <row r="147" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H147" s="35"/>
+    </row>
+    <row r="148" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H148" s="35"/>
+    </row>
+    <row r="149" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H149" s="35"/>
+    </row>
+    <row r="150" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H150" s="35"/>
+    </row>
+    <row r="151" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="30" t="s">
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H151" s="35"/>
+    </row>
+    <row r="152" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H152" s="35"/>
+    </row>
+    <row r="153" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H153" s="35"/>
+    </row>
+    <row r="154" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H154" s="35"/>
+    </row>
+    <row r="155" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H155" s="35"/>
+    </row>
+    <row r="156" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C156" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H156" s="35"/>
+    </row>
+    <row r="157" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H157" s="35"/>
+    </row>
+    <row r="158" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H158" s="35"/>
+    </row>
+    <row r="159" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H159" s="35"/>
+    </row>
+    <row r="160" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H160" s="35"/>
+    </row>
+    <row r="161" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H161" s="35"/>
+    </row>
+    <row r="162" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="30" t="s">
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H162" s="35"/>
+    </row>
+    <row r="163" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H163" s="35"/>
+    </row>
+    <row r="164" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H164" s="35"/>
+    </row>
+    <row r="165" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="30" t="s">
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H165" s="35"/>
+    </row>
+    <row r="166" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H166" s="35"/>
+    </row>
+    <row r="167" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="30" t="s">
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H167" s="35"/>
+    </row>
+    <row r="168" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H168" s="35"/>
+    </row>
+    <row r="169" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H169" s="35"/>
+    </row>
+    <row r="170" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H170" s="35"/>
+    </row>
+    <row r="171" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H171" s="35"/>
+    </row>
+    <row r="172" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H172" s="35"/>
+    </row>
+    <row r="173" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H173" s="35"/>
+    </row>
+    <row r="174" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H174" s="35"/>
+    </row>
+    <row r="175" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H175" s="35"/>
+    </row>
+    <row r="176" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C176" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H176" s="35"/>
+    </row>
+    <row r="177" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H177" s="35"/>
+    </row>
+    <row r="178" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H178" s="35"/>
+    </row>
+    <row r="179" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H179" s="35"/>
+    </row>
+    <row r="180" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C180" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="30" t="s">
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H180" s="35"/>
+    </row>
+    <row r="181" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H181" s="35"/>
+    </row>
+    <row r="182" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C182" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="30" t="s">
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H182" s="35"/>
+    </row>
+    <row r="183" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="30" t="s">
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H183" s="35"/>
+    </row>
+    <row r="184" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C184" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B133" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B135" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="124.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A141" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B143" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C145" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B146" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B147" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A150" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B150" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B151" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B153" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C153" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B154" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B155" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B156" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A157" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B157" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B158" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C158" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B159" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C159" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A160" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B160" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B161" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C161" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B162" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B163" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B165" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B166" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B167" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B168" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B169" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A170" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B170" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C170" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B171" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C171" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B172" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B173" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B174" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="34" t="s">
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H184" s="35"/>
+    </row>
+    <row r="185" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="C175" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B176" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A177" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B177" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="C177" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B178" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B179" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C179" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A180" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B180" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
-      <c r="F180" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B181" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C181" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B182" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C182" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B183" s="34" t="s">
+      <c r="B185" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C183" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B184" s="34" t="s">
+      <c r="C185" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H185" s="35"/>
+    </row>
+    <row r="186" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B186" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C184" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B185" s="34" t="s">
+      <c r="C186" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C185" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B186" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D186" s="30"/>
-      <c r="E186" s="30"/>
-      <c r="F186" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H186" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4548,10 +5138,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -4605,7 +5195,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="11" t="s">
@@ -4656,7 +5246,7 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
@@ -6880,18 +7470,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>

--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\covid-19-cusco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbf2594f81f1ff93/GORE/COMANDO COVID/6. TABLERO DE MANDO/covid-19-cusco/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="336">
   <si>
     <t>SGNGSR - EMITIDOS 2020</t>
   </si>
@@ -1000,13 +1000,49 @@
   </si>
   <si>
     <t>EXPOSICIÓN EN REUNIÓN DEL 13-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Solicitar formalmente al nivel nacional, la implementación de las pruebas antigénicas y la dotación de los insumos estratégicos necesarios para enfrentar una posible segunda ola. </t>
+  </si>
+  <si>
+    <t>2. Exhortar a los gobiernos locales y autoridades competentes a cumplir con la promoción y uso adecuado de los mecanismos de protección personal. (barbijos y protectores faciales).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Exhortar al Consejo Regional a promulgar la Ordenanza Regional sobre el uso obligatorio de la mascarilla facial, que ya fue aprobada en una primera instancia en la Comisión de Salud y Salubridad del Consejo Regional. </t>
+  </si>
+  <si>
+    <t>4. Como parte del plan de contingencia que será entregado formalmente al Comando por parte de DIRESA, adicionalmente se solicitará un inventario final de balones de oxígeno y los procesos de aseguramiento y provisión de oxígeno, que incluya los contratos correspondientes, así como la proyección de convenio con la planta de Cachimayo.</t>
+  </si>
+  <si>
+    <t>5. Se solicitará a la DIRESA un informe detallado, con evidencia fotográfica y las actas correspondientes de las entregas de los balones de oxígeno dadas por la Campaña Respira Cusco a los establecimientos de salud, así como la situación de aquellos balones que se encuentren en almacén.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Una vez realizado el depósito y devolución del dinero por parte de la empresa Oxíman Comercial, se llamará a una reunión extraordinaria que tendrá como objeto ver el destino final de este presupuesto, para lo cual EsSalud dentro de lo establecido formalmente enviará el requerimiento en cuanto a equipos e instrumentos para enfrentar la pandemia sin perderse el objeto de la campaña de tener una mayor capacidad relacionada al acceso del oxígeno de la población de la región. </t>
+  </si>
+  <si>
+    <t>Reunion 01-12</t>
+  </si>
+  <si>
+    <t>MEMO 1232-2020-GR CUSCO-GRDS</t>
+  </si>
+  <si>
+    <t>Se remitió una copia de la opinión técnica a asesoría jurídica para su aprobación</t>
+  </si>
+  <si>
+    <t>OFICIO 192-2020</t>
+  </si>
+  <si>
+    <t>OFICIO 190-2020</t>
+  </si>
+  <si>
+    <t>ACUERDO 6 REUNIÓN 01-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1115,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1330,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1415,15 +1459,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1444,6 +1479,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,11 +1789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1805,7 @@
     <col min="5" max="5" width="8.42578125" style="29" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="29" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36"/>
+    <col min="8" max="8" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,140 +1827,116 @@
       <c r="F1" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="45" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>314</v>
-      </c>
+    <row r="2" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>298</v>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>300</v>
+      <c r="H4" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>333</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>300</v>
+        <v>53</v>
+      </c>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
+        <v>334</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1946,7 @@
       <c r="G7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>304</v>
       </c>
     </row>
@@ -1923,467 +1955,469 @@
         <v>57</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>305</v>
-      </c>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>307</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>308</v>
-      </c>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="F11" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>310</v>
-      </c>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>312</v>
-      </c>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>298</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="32" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="32" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="40"/>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="G23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B24" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C24" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="39" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C25" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="39" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B26" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C26" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>321</v>
+      </c>
       <c r="G27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>99</v>
+      <c r="A28" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>37</v>
@@ -2391,125 +2425,155 @@
       <c r="D28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>318</v>
+      </c>
       <c r="G28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>99</v>
+      <c r="A29" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>316</v>
+      </c>
       <c r="G29" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>99</v>
+      <c r="A30" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>323</v>
+      </c>
       <c r="G30" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>99</v>
+      <c r="A31" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>323</v>
+      </c>
       <c r="G31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>118</v>
+      <c r="A32" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="27"/>
+        <v>98</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>118</v>
+      <c r="A33" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>37</v>
@@ -2518,19 +2582,19 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -2538,14 +2602,14 @@
       <c r="G36" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="35"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>37</v>
@@ -2556,14 +2620,14 @@
       <c r="G37" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="35"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>37</v>
@@ -2574,32 +2638,30 @@
       <c r="G38" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="35"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>37</v>
@@ -2610,14 +2672,14 @@
       <c r="G40" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="35"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>37</v>
@@ -2628,14 +2690,14 @@
       <c r="G41" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="35"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>37</v>
@@ -2646,17 +2708,17 @@
       <c r="G42" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="35"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -2664,17 +2726,17 @@
       <c r="G43" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="35"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -2682,17 +2744,17 @@
       <c r="G44" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -2700,14 +2762,14 @@
       <c r="G45" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>37</v>
@@ -2718,14 +2780,14 @@
       <c r="G46" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>37</v>
@@ -2736,17 +2798,17 @@
       <c r="G47" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -2754,17 +2816,17 @@
       <c r="G48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -2772,17 +2834,17 @@
       <c r="G49" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -2790,17 +2852,17 @@
       <c r="G50" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="35"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -2808,17 +2870,17 @@
       <c r="G51" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="35"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -2826,17 +2888,17 @@
       <c r="G52" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="35"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -2844,17 +2906,17 @@
       <c r="G53" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="35"/>
+      <c r="H53" s="32"/>
     </row>
     <row r="54" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
@@ -2862,17 +2924,17 @@
       <c r="G54" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="35"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
@@ -2880,30 +2942,32 @@
       <c r="G55" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="35"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="35"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>45</v>
@@ -2914,17 +2978,17 @@
       <c r="G57" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H57" s="35"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
@@ -2932,17 +2996,17 @@
       <c r="G58" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="35"/>
+      <c r="H58" s="32"/>
     </row>
     <row r="59" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -2950,17 +3014,17 @@
       <c r="G59" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="35"/>
+      <c r="H59" s="32"/>
     </row>
     <row r="60" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
@@ -2968,17 +3032,17 @@
       <c r="G60" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H60" s="35"/>
+      <c r="H60" s="32"/>
     </row>
     <row r="61" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -2986,32 +3050,30 @@
       <c r="G61" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H61" s="35"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>293</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="35"/>
+      <c r="H62" s="32"/>
     </row>
     <row r="63" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>45</v>
@@ -3022,110 +3084,122 @@
       <c r="G63" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="35"/>
+      <c r="H63" s="32"/>
     </row>
     <row r="64" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H64" s="35"/>
+      <c r="H64" s="32"/>
     </row>
     <row r="65" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H65" s="35"/>
+      <c r="H65" s="32"/>
     </row>
     <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="27"/>
+        <v>136</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H66" s="35"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="27"/>
+        <v>137</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>292</v>
+      </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H67" s="35"/>
+      <c r="H67" s="32"/>
     </row>
     <row r="68" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>293</v>
+      </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H68" s="35"/>
+      <c r="H68" s="32"/>
     </row>
     <row r="69" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="35"/>
+      <c r="H69" s="32"/>
     </row>
     <row r="70" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -3134,14 +3208,14 @@
       <c r="G70" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="35"/>
+      <c r="H70" s="32"/>
     </row>
     <row r="71" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -3150,14 +3224,14 @@
       <c r="G71" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="35"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -3166,14 +3240,14 @@
       <c r="G72" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="35"/>
+      <c r="H72" s="32"/>
     </row>
     <row r="73" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -3182,14 +3256,14 @@
       <c r="G73" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H73" s="35"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -3198,14 +3272,14 @@
       <c r="G74" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="35"/>
+      <c r="H74" s="32"/>
     </row>
     <row r="75" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -3214,14 +3288,14 @@
       <c r="G75" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H75" s="35"/>
+      <c r="H75" s="32"/>
     </row>
     <row r="76" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -3230,14 +3304,14 @@
       <c r="G76" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H76" s="35"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -3246,14 +3320,14 @@
       <c r="G77" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="35"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -3262,14 +3336,14 @@
       <c r="G78" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H78" s="35"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -3278,14 +3352,14 @@
       <c r="G79" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H79" s="35"/>
+      <c r="H79" s="32"/>
     </row>
     <row r="80" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -3294,14 +3368,14 @@
       <c r="G80" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="35"/>
+      <c r="H80" s="32"/>
     </row>
     <row r="81" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -3310,14 +3384,14 @@
       <c r="G81" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H81" s="35"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="82" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -3326,14 +3400,14 @@
       <c r="G82" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H82" s="35"/>
+      <c r="H82" s="32"/>
     </row>
     <row r="83" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -3342,14 +3416,14 @@
       <c r="G83" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H83" s="35"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -3358,14 +3432,14 @@
       <c r="G84" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H84" s="35"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
@@ -3374,14 +3448,14 @@
       <c r="G85" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H85" s="35"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -3390,14 +3464,14 @@
       <c r="G86" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H86" s="35"/>
+      <c r="H86" s="32"/>
     </row>
     <row r="87" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -3406,14 +3480,14 @@
       <c r="G87" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H87" s="35"/>
+      <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3422,14 +3496,14 @@
       <c r="G88" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H88" s="35"/>
+      <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -3438,14 +3512,14 @@
       <c r="G89" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H89" s="35"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -3454,14 +3528,14 @@
       <c r="G90" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H90" s="35"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
@@ -3470,14 +3544,14 @@
       <c r="G91" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H91" s="35"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
@@ -3486,14 +3560,14 @@
       <c r="G92" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="35"/>
+      <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
@@ -3502,14 +3576,14 @@
       <c r="G93" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H93" s="35"/>
+      <c r="H93" s="32"/>
     </row>
     <row r="94" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
@@ -3518,14 +3592,14 @@
       <c r="G94" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H94" s="35"/>
+      <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
@@ -3534,14 +3608,14 @@
       <c r="G95" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H95" s="35"/>
+      <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -3550,14 +3624,14 @@
       <c r="G96" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H96" s="35"/>
+      <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -3566,14 +3640,14 @@
       <c r="G97" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H97" s="35"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
@@ -3582,14 +3656,14 @@
       <c r="G98" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="35"/>
+      <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
@@ -3598,14 +3672,14 @@
       <c r="G99" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H99" s="35"/>
+      <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
@@ -3614,14 +3688,14 @@
       <c r="G100" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H100" s="35"/>
+      <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
@@ -3630,14 +3704,14 @@
       <c r="G101" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H101" s="35"/>
+      <c r="H101" s="32"/>
     </row>
     <row r="102" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
@@ -3646,14 +3720,14 @@
       <c r="G102" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H102" s="35"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
@@ -3662,14 +3736,14 @@
       <c r="G103" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H103" s="35"/>
+      <c r="H103" s="32"/>
     </row>
     <row r="104" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
@@ -3678,14 +3752,14 @@
       <c r="G104" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H104" s="35"/>
+      <c r="H104" s="32"/>
     </row>
     <row r="105" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
@@ -3694,14 +3768,14 @@
       <c r="G105" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H105" s="35"/>
+      <c r="H105" s="32"/>
     </row>
     <row r="106" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
@@ -3710,14 +3784,14 @@
       <c r="G106" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H106" s="35"/>
+      <c r="H106" s="32"/>
     </row>
     <row r="107" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
@@ -3726,14 +3800,14 @@
       <c r="G107" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H107" s="35"/>
+      <c r="H107" s="32"/>
     </row>
     <row r="108" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
@@ -3742,14 +3816,14 @@
       <c r="G108" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="35"/>
+      <c r="H108" s="32"/>
     </row>
     <row r="109" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
@@ -3758,14 +3832,14 @@
       <c r="G109" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H109" s="35"/>
+      <c r="H109" s="32"/>
     </row>
     <row r="110" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
@@ -3774,14 +3848,14 @@
       <c r="G110" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H110" s="35"/>
+      <c r="H110" s="32"/>
     </row>
     <row r="111" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
@@ -3790,14 +3864,14 @@
       <c r="G111" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H111" s="35"/>
+      <c r="H111" s="32"/>
     </row>
     <row r="112" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
@@ -3806,14 +3880,14 @@
       <c r="G112" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H112" s="35"/>
+      <c r="H112" s="32"/>
     </row>
     <row r="113" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
@@ -3822,14 +3896,14 @@
       <c r="G113" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H113" s="35"/>
+      <c r="H113" s="32"/>
     </row>
     <row r="114" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3838,14 +3912,14 @@
       <c r="G114" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H114" s="35"/>
+      <c r="H114" s="32"/>
     </row>
     <row r="115" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3854,14 +3928,14 @@
       <c r="G115" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H115" s="35"/>
+      <c r="H115" s="32"/>
     </row>
     <row r="116" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C116" s="27"/>
       <c r="D116" s="27"/>
@@ -3870,14 +3944,14 @@
       <c r="G116" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H116" s="35"/>
+      <c r="H116" s="32"/>
     </row>
     <row r="117" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
@@ -3886,14 +3960,14 @@
       <c r="G117" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H117" s="35"/>
+      <c r="H117" s="32"/>
     </row>
     <row r="118" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
@@ -3902,14 +3976,14 @@
       <c r="G118" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H118" s="35"/>
+      <c r="H118" s="32"/>
     </row>
     <row r="119" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
@@ -3918,14 +3992,14 @@
       <c r="G119" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H119" s="35"/>
+      <c r="H119" s="32"/>
     </row>
     <row r="120" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
@@ -3934,14 +4008,14 @@
       <c r="G120" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H120" s="35"/>
+      <c r="H120" s="32"/>
     </row>
     <row r="121" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
@@ -3950,14 +4024,14 @@
       <c r="G121" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H121" s="35"/>
+      <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C122" s="27"/>
       <c r="D122" s="27"/>
@@ -3966,14 +4040,14 @@
       <c r="G122" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H122" s="35"/>
+      <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
@@ -3982,14 +4056,14 @@
       <c r="G123" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H123" s="35"/>
+      <c r="H123" s="32"/>
     </row>
     <row r="124" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
@@ -3998,14 +4072,14 @@
       <c r="G124" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H124" s="35"/>
+      <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
@@ -4014,14 +4088,14 @@
       <c r="G125" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H125" s="35"/>
+      <c r="H125" s="32"/>
     </row>
     <row r="126" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C126" s="27"/>
       <c r="D126" s="27"/>
@@ -4030,14 +4104,14 @@
       <c r="G126" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H126" s="35"/>
+      <c r="H126" s="32"/>
     </row>
     <row r="127" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C127" s="27"/>
       <c r="D127" s="27"/>
@@ -4046,14 +4120,14 @@
       <c r="G127" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H127" s="35"/>
+      <c r="H127" s="32"/>
     </row>
     <row r="128" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
@@ -4062,14 +4136,14 @@
       <c r="G128" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H128" s="35"/>
+      <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C129" s="27"/>
       <c r="D129" s="27"/>
@@ -4078,14 +4152,14 @@
       <c r="G129" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H129" s="35"/>
+      <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C130" s="27"/>
       <c r="D130" s="27"/>
@@ -4094,14 +4168,14 @@
       <c r="G130" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H130" s="35"/>
+      <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C131" s="27"/>
       <c r="D131" s="27"/>
@@ -4110,14 +4184,14 @@
       <c r="G131" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H131" s="35"/>
+      <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C132" s="27"/>
       <c r="D132" s="27"/>
@@ -4126,14 +4200,14 @@
       <c r="G132" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H132" s="35"/>
+      <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>218</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C133" s="27"/>
       <c r="D133" s="27"/>
@@ -4142,125 +4216,113 @@
       <c r="G133" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H133" s="35"/>
+      <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C134" s="27"/>
       <c r="D134" s="27"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
       <c r="G134" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H134" s="35"/>
+      <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C135" s="27"/>
       <c r="D135" s="27"/>
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
       <c r="G135" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H135" s="35"/>
+      <c r="H135" s="32"/>
     </row>
     <row r="136" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>37</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C136" s="27"/>
       <c r="D136" s="27"/>
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
       <c r="G136" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H136" s="35"/>
+      <c r="H136" s="32"/>
     </row>
     <row r="137" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>89</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C137" s="27"/>
       <c r="D137" s="27"/>
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
       <c r="G137" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H137" s="35"/>
+      <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>37</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C138" s="27"/>
       <c r="D138" s="27"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
       <c r="G138" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H138" s="35"/>
+      <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C139" s="27"/>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
       <c r="F139" s="27"/>
       <c r="G139" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H139" s="35"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="27"/>
@@ -4268,14 +4330,14 @@
       <c r="G140" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H140" s="35"/>
+      <c r="H140" s="32"/>
     </row>
     <row r="141" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C141" s="27" t="s">
         <v>45</v>
@@ -4286,17 +4348,17 @@
       <c r="G141" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H141" s="35"/>
+      <c r="H141" s="32"/>
     </row>
     <row r="142" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="27"/>
@@ -4304,17 +4366,17 @@
       <c r="G142" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H142" s="35"/>
+      <c r="H142" s="32"/>
     </row>
     <row r="143" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="27"/>
@@ -4322,17 +4384,17 @@
       <c r="G143" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H143" s="35"/>
+      <c r="H143" s="32"/>
     </row>
     <row r="144" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
@@ -4340,14 +4402,14 @@
       <c r="G144" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H144" s="35"/>
+      <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C145" s="27" t="s">
         <v>45</v>
@@ -4358,17 +4420,17 @@
       <c r="G145" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H145" s="35"/>
+      <c r="H145" s="32"/>
     </row>
     <row r="146" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
@@ -4376,33 +4438,35 @@
       <c r="G146" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H146" s="35"/>
+      <c r="H146" s="32"/>
     </row>
     <row r="147" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C147" s="27"/>
+        <v>227</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
       <c r="F147" s="27"/>
       <c r="G147" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H147" s="35"/>
+      <c r="H147" s="32"/>
     </row>
     <row r="148" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27"/>
@@ -4410,17 +4474,17 @@
       <c r="G148" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H148" s="35"/>
+      <c r="H148" s="32"/>
     </row>
     <row r="149" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C149" s="27" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="27"/>
@@ -4428,17 +4492,17 @@
       <c r="G149" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H149" s="35"/>
+      <c r="H149" s="32"/>
     </row>
     <row r="150" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
@@ -4446,17 +4510,17 @@
       <c r="G150" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H150" s="35"/>
+      <c r="H150" s="32"/>
     </row>
     <row r="151" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -4464,17 +4528,17 @@
       <c r="G151" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H151" s="35"/>
+      <c r="H151" s="32"/>
     </row>
     <row r="152" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="D152" s="27"/>
       <c r="E152" s="27"/>
@@ -4482,35 +4546,33 @@
       <c r="G152" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H152" s="35"/>
+      <c r="H152" s="32"/>
     </row>
     <row r="153" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C153" s="27"/>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
       <c r="F153" s="27"/>
       <c r="G153" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H153" s="35"/>
+      <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27"/>
@@ -4518,17 +4580,17 @@
       <c r="G154" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H154" s="35"/>
+      <c r="H154" s="32"/>
     </row>
     <row r="155" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
@@ -4536,14 +4598,14 @@
       <c r="G155" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H155" s="35"/>
+      <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C156" s="27" t="s">
         <v>37</v>
@@ -4554,14 +4616,14 @@
       <c r="G156" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H156" s="35"/>
+      <c r="H156" s="32"/>
     </row>
     <row r="157" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C157" s="27" t="s">
         <v>37</v>
@@ -4572,14 +4634,14 @@
       <c r="G157" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H157" s="35"/>
+      <c r="H157" s="32"/>
     </row>
     <row r="158" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C158" s="27" t="s">
         <v>92</v>
@@ -4590,17 +4652,17 @@
       <c r="G158" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H158" s="35"/>
+      <c r="H158" s="32"/>
     </row>
     <row r="159" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27"/>
@@ -4608,17 +4670,17 @@
       <c r="G159" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H159" s="35"/>
+      <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27"/>
@@ -4626,17 +4688,17 @@
       <c r="G160" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H160" s="35"/>
+      <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
@@ -4644,14 +4706,14 @@
       <c r="G161" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H161" s="35"/>
+      <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>37</v>
@@ -4662,17 +4724,17 @@
       <c r="G162" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H162" s="35"/>
+      <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
@@ -4680,17 +4742,17 @@
       <c r="G163" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H163" s="35"/>
+      <c r="H163" s="32"/>
     </row>
     <row r="164" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27"/>
@@ -4698,14 +4760,14 @@
       <c r="G164" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H164" s="35"/>
+      <c r="H164" s="32"/>
     </row>
     <row r="165" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C165" s="27" t="s">
         <v>37</v>
@@ -4716,17 +4778,17 @@
       <c r="G165" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H165" s="35"/>
+      <c r="H165" s="32"/>
     </row>
     <row r="166" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27"/>
@@ -4734,14 +4796,14 @@
       <c r="G166" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H166" s="35"/>
+      <c r="H166" s="32"/>
     </row>
     <row r="167" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C167" s="27" t="s">
         <v>37</v>
@@ -4752,17 +4814,17 @@
       <c r="G167" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H167" s="35"/>
+      <c r="H167" s="32"/>
     </row>
     <row r="168" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27"/>
@@ -4770,17 +4832,17 @@
       <c r="G168" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H168" s="35"/>
+      <c r="H168" s="32"/>
     </row>
     <row r="169" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27"/>
@@ -4788,17 +4850,17 @@
       <c r="G169" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H169" s="35"/>
+      <c r="H169" s="32"/>
     </row>
     <row r="170" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27"/>
@@ -4806,17 +4868,17 @@
       <c r="G170" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H170" s="35"/>
+      <c r="H170" s="32"/>
     </row>
     <row r="171" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27"/>
@@ -4824,14 +4886,14 @@
       <c r="G171" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H171" s="35"/>
+      <c r="H171" s="32"/>
     </row>
     <row r="172" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C172" s="27" t="s">
         <v>45</v>
@@ -4842,17 +4904,17 @@
       <c r="G172" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H172" s="35"/>
+      <c r="H172" s="32"/>
     </row>
     <row r="173" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27"/>
@@ -4860,14 +4922,14 @@
       <c r="G173" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H173" s="35"/>
+      <c r="H173" s="32"/>
     </row>
     <row r="174" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C174" s="27" t="s">
         <v>45</v>
@@ -4878,17 +4940,17 @@
       <c r="G174" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H174" s="35"/>
+      <c r="H174" s="32"/>
     </row>
     <row r="175" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27"/>
@@ -4896,17 +4958,17 @@
       <c r="G175" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H175" s="35"/>
+      <c r="H175" s="32"/>
     </row>
     <row r="176" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27"/>
@@ -4914,14 +4976,14 @@
       <c r="G176" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H176" s="35"/>
+      <c r="H176" s="32"/>
     </row>
     <row r="177" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C177" s="27" t="s">
         <v>45</v>
@@ -4932,14 +4994,14 @@
       <c r="G177" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H177" s="35"/>
+      <c r="H177" s="32"/>
     </row>
     <row r="178" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C178" s="27" t="s">
         <v>45</v>
@@ -4950,14 +5012,14 @@
       <c r="G178" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H178" s="35"/>
+      <c r="H178" s="32"/>
     </row>
     <row r="179" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C179" s="27" t="s">
         <v>45</v>
@@ -4968,17 +5030,17 @@
       <c r="G179" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H179" s="35"/>
+      <c r="H179" s="32"/>
     </row>
     <row r="180" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -4986,17 +5048,17 @@
       <c r="G180" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H180" s="35"/>
+      <c r="H180" s="32"/>
     </row>
     <row r="181" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
@@ -5004,14 +5066,14 @@
       <c r="G181" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H181" s="35"/>
+      <c r="H181" s="32"/>
     </row>
     <row r="182" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C182" s="27" t="s">
         <v>37</v>
@@ -5022,14 +5084,14 @@
       <c r="G182" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H182" s="35"/>
+      <c r="H182" s="32"/>
     </row>
     <row r="183" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C183" s="27" t="s">
         <v>45</v>
@@ -5040,17 +5102,17 @@
       <c r="G183" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H183" s="35"/>
+      <c r="H183" s="32"/>
     </row>
     <row r="184" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
@@ -5058,17 +5120,17 @@
       <c r="G184" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H184" s="35"/>
+      <c r="H184" s="32"/>
     </row>
     <row r="185" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
@@ -5076,17 +5138,17 @@
       <c r="G185" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H185" s="35"/>
+      <c r="H185" s="32"/>
     </row>
     <row r="186" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -5094,7 +5156,115 @@
       <c r="G186" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H186" s="35"/>
+      <c r="H186" s="32"/>
+    </row>
+    <row r="187" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H187" s="32"/>
+    </row>
+    <row r="188" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H188" s="32"/>
+    </row>
+    <row r="189" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H189" s="32"/>
+    </row>
+    <row r="190" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H190" s="32"/>
+    </row>
+    <row r="191" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H191" s="32"/>
+    </row>
+    <row r="192" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H192" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7470,18 +7640,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>

--- a/1. ACTAS.xlsx
+++ b/1. ACTAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbf2594f81f1ff93/GORE/COMANDO COVID/6. TABLERO DE MANDO/covid-19-cusco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\covid-19-cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1480,15 +1480,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1500,6 +1491,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1793,15 +1793,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="38.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18" style="29" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="29" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="29" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="29" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="29" customWidth="1"/>
@@ -1827,55 +1827,55 @@
       <c r="F1" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="27" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="27" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>331</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1888,16 +1888,16 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>333</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1908,16 +1908,16 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
         <v>334</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1928,15 +1928,15 @@
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:8" s="40" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>55</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>55</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>55</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>55</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>80</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>80</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>80</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>80</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>80</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>80</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="H32" s="32"/>
     </row>
-    <row r="33" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>80</v>
       </c>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>99</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="H34" s="32"/>
     </row>
-    <row r="35" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>99</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="H35" s="32"/>
     </row>
-    <row r="36" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>99</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="H36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>99</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>118</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="H38" s="32"/>
     </row>
-    <row r="39" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>118</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="H39" s="32"/>
     </row>
-    <row r="40" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>118</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>118</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="H41" s="32"/>
     </row>
-    <row r="42" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>118</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>118</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H43" s="32"/>
     </row>
-    <row r="44" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>118</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H44" s="32"/>
     </row>
-    <row r="45" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>118</v>
       </c>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="H45" s="32"/>
     </row>
-    <row r="46" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>118</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="H46" s="32"/>
     </row>
-    <row r="47" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>118</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>118</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="H48" s="32"/>
     </row>
-    <row r="49" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>118</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H49" s="32"/>
     </row>
-    <row r="50" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>118</v>
       </c>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="H50" s="32"/>
     </row>
-    <row r="51" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>119</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H51" s="32"/>
     </row>
-    <row r="52" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>119</v>
       </c>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H52" s="32"/>
     </row>
-    <row r="53" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>119</v>
       </c>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="H53" s="32"/>
     </row>
-    <row r="54" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>119</v>
       </c>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H54" s="32"/>
     </row>
-    <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>119</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="H55" s="32"/>
     </row>
-    <row r="56" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>119</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H56" s="32"/>
     </row>
-    <row r="57" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="H57" s="32"/>
     </row>
-    <row r="58" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>119</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H58" s="32"/>
     </row>
-    <row r="59" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>119</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="H59" s="32"/>
     </row>
-    <row r="60" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>119</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="H60" s="32"/>
     </row>
-    <row r="61" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>119</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H61" s="32"/>
     </row>
-    <row r="62" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>119</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>132</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="H63" s="32"/>
     </row>
-    <row r="64" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>132</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H64" s="32"/>
     </row>
-    <row r="65" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>132</v>
       </c>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="H65" s="32"/>
     </row>
-    <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>132</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="H66" s="32"/>
     </row>
-    <row r="67" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>132</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="H67" s="32"/>
     </row>
-    <row r="68" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>132</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="H68" s="32"/>
     </row>
-    <row r="69" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="H69" s="32"/>
     </row>
-    <row r="70" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>140</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="H70" s="32"/>
     </row>
-    <row r="71" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>140</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="H71" s="32"/>
     </row>
-    <row r="72" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>140</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="H72" s="32"/>
     </row>
-    <row r="73" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>140</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="H73" s="32"/>
     </row>
-    <row r="74" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>140</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H74" s="32"/>
     </row>
-    <row r="75" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>140</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="H75" s="32"/>
     </row>
-    <row r="76" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>140</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="H76" s="32"/>
     </row>
-    <row r="77" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>140</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="H77" s="32"/>
     </row>
-    <row r="78" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>140</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H78" s="32"/>
     </row>
-    <row r="79" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>140</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H79" s="32"/>
     </row>
-    <row r="80" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>140</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="H80" s="32"/>
     </row>
-    <row r="81" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>140</v>
       </c>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H81" s="32"/>
     </row>
-    <row r="82" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>153</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="H82" s="32"/>
     </row>
-    <row r="83" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>153</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H83" s="32"/>
     </row>
-    <row r="84" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>153</v>
       </c>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="H84" s="32"/>
     </row>
-    <row r="85" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>157</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="H85" s="32"/>
     </row>
-    <row r="86" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>157</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="H86" s="32"/>
     </row>
-    <row r="87" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>157</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="H87" s="32"/>
     </row>
-    <row r="88" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>157</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H88" s="32"/>
     </row>
-    <row r="89" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>157</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="H89" s="32"/>
     </row>
-    <row r="90" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>157</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H90" s="32"/>
     </row>
-    <row r="91" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>157</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="H91" s="32"/>
     </row>
-    <row r="92" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>157</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H92" s="32"/>
     </row>
-    <row r="93" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>166</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="H93" s="32"/>
     </row>
-    <row r="94" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>166</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="H94" s="32"/>
     </row>
-    <row r="95" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>166</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="H95" s="32"/>
     </row>
-    <row r="96" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>166</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="H96" s="32"/>
     </row>
-    <row r="97" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>171</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="H97" s="32"/>
     </row>
-    <row r="98" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>171</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="H98" s="32"/>
     </row>
-    <row r="99" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>171</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="H99" s="32"/>
     </row>
-    <row r="100" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>171</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="H100" s="32"/>
     </row>
-    <row r="101" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>176</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="H101" s="32"/>
     </row>
-    <row r="102" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>176</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="H102" s="32"/>
     </row>
-    <row r="103" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>176</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="H103" s="32"/>
     </row>
-    <row r="104" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>176</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H104" s="32"/>
     </row>
-    <row r="105" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>176</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="H105" s="32"/>
     </row>
-    <row r="106" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>176</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H106" s="32"/>
     </row>
-    <row r="107" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>176</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="H107" s="32"/>
     </row>
-    <row r="108" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>176</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="H108" s="32"/>
     </row>
-    <row r="109" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>176</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="H109" s="32"/>
     </row>
-    <row r="110" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>176</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="H110" s="32"/>
     </row>
-    <row r="111" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>176</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H111" s="32"/>
     </row>
-    <row r="112" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>176</v>
       </c>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="H112" s="32"/>
     </row>
-    <row r="113" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>176</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H113" s="32"/>
     </row>
-    <row r="114" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>176</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="H114" s="32"/>
     </row>
-    <row r="115" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>176</v>
       </c>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="H115" s="32"/>
     </row>
-    <row r="116" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>192</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="H116" s="32"/>
     </row>
-    <row r="117" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>192</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H117" s="32"/>
     </row>
-    <row r="118" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>192</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="H118" s="32"/>
     </row>
-    <row r="119" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>192</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="H119" s="32"/>
     </row>
-    <row r="120" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>192</v>
       </c>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="H120" s="32"/>
     </row>
-    <row r="121" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>192</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="H121" s="32"/>
     </row>
-    <row r="122" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>192</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H122" s="32"/>
     </row>
-    <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>192</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="H123" s="32"/>
     </row>
-    <row r="124" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>192</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H125" s="32"/>
     </row>
-    <row r="126" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>192</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="H126" s="32"/>
     </row>
-    <row r="127" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>204</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="H127" s="32"/>
     </row>
-    <row r="128" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>204</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="H128" s="32"/>
     </row>
-    <row r="129" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>218</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="H129" s="32"/>
     </row>
-    <row r="130" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>218</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="H130" s="32"/>
     </row>
-    <row r="131" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>218</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="H131" s="32"/>
     </row>
-    <row r="132" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>218</v>
       </c>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="H132" s="32"/>
     </row>
-    <row r="133" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>218</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H133" s="32"/>
     </row>
-    <row r="134" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>218</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="H134" s="32"/>
     </row>
-    <row r="135" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>218</v>
       </c>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="H135" s="32"/>
     </row>
-    <row r="136" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>218</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H136" s="32"/>
     </row>
-    <row r="137" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>218</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="H137" s="32"/>
     </row>
-    <row r="138" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>218</v>
       </c>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="H138" s="32"/>
     </row>
-    <row r="139" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>218</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H139" s="32"/>
     </row>
-    <row r="140" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>219</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="H140" s="32"/>
     </row>
-    <row r="141" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>219</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="H141" s="32"/>
     </row>
-    <row r="142" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>219</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="H142" s="32"/>
     </row>
-    <row r="143" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>219</v>
       </c>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="H143" s="32"/>
     </row>
-    <row r="144" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>219</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H144" s="32"/>
     </row>
-    <row r="145" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>219</v>
       </c>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="H145" s="32"/>
     </row>
-    <row r="146" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>219</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="H146" s="32"/>
     </row>
-    <row r="147" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>219</v>
       </c>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="H147" s="32"/>
     </row>
-    <row r="148" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>219</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="H148" s="32"/>
     </row>
-    <row r="149" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>219</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="H149" s="32"/>
     </row>
-    <row r="150" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>219</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="H150" s="32"/>
     </row>
-    <row r="151" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>219</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>232</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="H152" s="32"/>
     </row>
-    <row r="153" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>232</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="H153" s="32"/>
     </row>
-    <row r="154" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>232</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H154" s="32"/>
     </row>
-    <row r="155" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>232</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H155" s="32"/>
     </row>
-    <row r="156" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>232</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="H156" s="32"/>
     </row>
-    <row r="157" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>232</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H157" s="32"/>
     </row>
-    <row r="158" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>232</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="H158" s="32"/>
     </row>
-    <row r="159" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>232</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="H159" s="32"/>
     </row>
-    <row r="160" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>232</v>
       </c>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="H160" s="32"/>
     </row>
-    <row r="161" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>232</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="H161" s="32"/>
     </row>
-    <row r="162" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>243</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="H162" s="32"/>
     </row>
-    <row r="163" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>243</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="H163" s="32"/>
     </row>
-    <row r="164" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>243</v>
       </c>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="H164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>243</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="H165" s="32"/>
     </row>
-    <row r="166" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>243</v>
       </c>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="H166" s="32"/>
     </row>
-    <row r="167" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>243</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H167" s="32"/>
     </row>
-    <row r="168" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>243</v>
       </c>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="H168" s="32"/>
     </row>
-    <row r="169" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>243</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="H169" s="32"/>
     </row>
-    <row r="170" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>243</v>
       </c>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="H170" s="32"/>
     </row>
-    <row r="171" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>243</v>
       </c>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H171" s="32"/>
     </row>
-    <row r="172" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>254</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="H172" s="32"/>
     </row>
-    <row r="173" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>254</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="H173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>254</v>
       </c>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="H174" s="32"/>
     </row>
-    <row r="175" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>254</v>
       </c>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="H175" s="32"/>
     </row>
-    <row r="176" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>254</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="H176" s="32"/>
     </row>
-    <row r="177" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>254</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="H177" s="32"/>
     </row>
-    <row r="178" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>254</v>
       </c>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="H178" s="32"/>
     </row>
-    <row r="179" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>254</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="H179" s="32"/>
     </row>
-    <row r="180" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>254</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="H180" s="32"/>
     </row>
-    <row r="181" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>254</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="H181" s="32"/>
     </row>
-    <row r="182" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>254</v>
       </c>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="H182" s="32"/>
     </row>
-    <row r="183" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>266</v>
       </c>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="H183" s="32"/>
     </row>
-    <row r="184" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>266</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H184" s="32"/>
     </row>
-    <row r="185" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>266</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="H185" s="32"/>
     </row>
-    <row r="186" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>266</v>
       </c>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="H186" s="32"/>
     </row>
-    <row r="187" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
         <v>266</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="H187" s="32"/>
     </row>
-    <row r="188" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
         <v>266</v>
       </c>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="H188" s="32"/>
     </row>
-    <row r="189" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>266</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="H189" s="32"/>
     </row>
-    <row r="190" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>266</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="H190" s="32"/>
     </row>
-    <row r="191" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>266</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="H191" s="32"/>
     </row>
-    <row r="192" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>266</v>
       </c>
@@ -7640,18 +7640,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
